--- a/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9998634186239378</v>
+      </c>
+      <c r="D3">
         <v>1.00003414437358</v>
-      </c>
-      <c r="D3">
-        <v>0.9998634186239378</v>
       </c>
       <c r="E3">
         <v>1.00003414437358</v>
       </c>
       <c r="F3">
+        <v>0.9998634186239378</v>
+      </c>
+      <c r="G3">
         <v>1.00003414437358</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.00003414437358</v>
+      </c>
+      <c r="I3">
+        <v>0.9999248791918819</v>
+      </c>
+      <c r="J3">
         <v>1.000091056818286</v>
-      </c>
-      <c r="H3">
-        <v>0.9999248791918819</v>
-      </c>
-      <c r="I3">
-        <v>1.00003414437358</v>
-      </c>
-      <c r="J3">
-        <v>0.9998634186239378</v>
       </c>
       <c r="K3">
         <v>1.00003414437358</v>
@@ -728,7 +680,7 @@
         <v>0.9999969646258077</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9997363311749591</v>
+      </c>
+      <c r="D4">
         <v>1.000065917483334</v>
-      </c>
-      <c r="D4">
-        <v>0.9997363311749592</v>
       </c>
       <c r="E4">
         <v>1.000065917483334</v>
       </c>
       <c r="F4">
+        <v>0.9997363311749591</v>
+      </c>
+      <c r="G4">
         <v>1.000065917483334</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.000065917483334</v>
+      </c>
+      <c r="I4">
+        <v>0.9998549809145069</v>
+      </c>
+      <c r="J4">
         <v>1.000175782423695</v>
-      </c>
-      <c r="H4">
-        <v>0.9998549809145069</v>
-      </c>
-      <c r="I4">
-        <v>1.000065917483334</v>
-      </c>
-      <c r="J4">
-        <v>0.9997363311749592</v>
       </c>
       <c r="K4">
         <v>1.000065917483334</v>
@@ -766,31 +718,31 @@
         <v>1.000065917483334</v>
       </c>
       <c r="M4">
-        <v>0.9999011243291464</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="N4">
-        <v>0.9999011243291464</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="O4">
-        <v>0.9998857431909332</v>
+        <v>0.9998857431909333</v>
       </c>
       <c r="P4">
-        <v>0.999956055380542</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="Q4">
-        <v>0.999956055380542</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="R4">
-        <v>0.9999835209062399</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="S4">
-        <v>0.9999835209062399</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="T4">
-        <v>0.9999941411605269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999941411605272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9994947103847434</v>
+      </c>
+      <c r="D5">
         <v>1.000126321655468</v>
-      </c>
-      <c r="D5">
-        <v>0.9994947103847434</v>
       </c>
       <c r="E5">
         <v>1.000126321655468</v>
       </c>
       <c r="F5">
+        <v>0.9994947103847434</v>
+      </c>
+      <c r="G5">
         <v>1.000126321655468</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>1.000126321655468</v>
+      </c>
+      <c r="I5">
+        <v>0.99972208928536</v>
+      </c>
+      <c r="J5">
         <v>1.000336862281878</v>
-      </c>
-      <c r="H5">
-        <v>0.99972208928536</v>
-      </c>
-      <c r="I5">
-        <v>1.000126321655468</v>
-      </c>
-      <c r="J5">
-        <v>0.9994947103847434</v>
       </c>
       <c r="K5">
         <v>1.000126321655468</v>
@@ -852,7 +804,7 @@
         <v>0.9999887711530645</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9992588949097213</v>
+      </c>
+      <c r="D6">
         <v>1.000185276655152</v>
-      </c>
-      <c r="D6">
-        <v>0.9992588949097213</v>
       </c>
       <c r="E6">
         <v>1.000185276655152</v>
       </c>
       <c r="F6">
+        <v>0.9992588949097213</v>
+      </c>
+      <c r="G6">
         <v>1.000185276655152</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1.000185276655152</v>
+      </c>
+      <c r="I6">
+        <v>0.9995924021498892</v>
+      </c>
+      <c r="J6">
         <v>1.00049406993941</v>
-      </c>
-      <c r="H6">
-        <v>0.9995924021498892</v>
-      </c>
-      <c r="I6">
-        <v>1.000185276655152</v>
-      </c>
-      <c r="J6">
-        <v>0.9992588949097213</v>
       </c>
       <c r="K6">
         <v>1.000185276655152</v>
@@ -914,7 +866,7 @@
         <v>0.9999835328274127</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,43 +874,43 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000002459856987</v>
+        <v>0.999990157588081</v>
       </c>
       <c r="D7">
+        <v>1.000002459856986</v>
+      </c>
+      <c r="E7">
+        <v>1.000002459856986</v>
+      </c>
+      <c r="F7">
         <v>0.999990157588081</v>
       </c>
-      <c r="E7">
-        <v>1.000002459856987</v>
-      </c>
-      <c r="F7">
-        <v>1.000002459856987</v>
-      </c>
       <c r="G7">
+        <v>1.000002459856986</v>
+      </c>
+      <c r="H7">
+        <v>1.000002459856986</v>
+      </c>
+      <c r="I7">
+        <v>0.9999945852413287</v>
+      </c>
+      <c r="J7">
         <v>1.000006564545106</v>
       </c>
-      <c r="H7">
-        <v>0.9999945852413288</v>
-      </c>
-      <c r="I7">
-        <v>1.000002459856987</v>
-      </c>
-      <c r="J7">
-        <v>0.999990157588081</v>
-      </c>
       <c r="K7">
-        <v>1.000002459856987</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="L7">
-        <v>1.000002459856987</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="M7">
-        <v>0.9999963087225338</v>
+        <v>0.9999963087225336</v>
       </c>
       <c r="N7">
-        <v>0.9999963087225338</v>
+        <v>0.9999963087225336</v>
       </c>
       <c r="O7">
-        <v>0.9999957342287988</v>
+        <v>0.9999957342287987</v>
       </c>
       <c r="P7">
         <v>0.9999983591006846</v>
@@ -976,7 +928,7 @@
         <v>0.999999781157579</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999739182163487</v>
+      </c>
+      <c r="D8">
         <v>1.000006519854835</v>
-      </c>
-      <c r="D8">
-        <v>0.9999739182163487</v>
       </c>
       <c r="E8">
         <v>1.000006519854835</v>
       </c>
       <c r="F8">
+        <v>0.9999739182163487</v>
+      </c>
+      <c r="G8">
         <v>1.000006519854835</v>
       </c>
-      <c r="G8">
-        <v>1.000017391081827</v>
-      </c>
       <c r="H8">
-        <v>0.999985653681054</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="I8">
-        <v>1.000006519854835</v>
+        <v>0.9999856536810541</v>
       </c>
       <c r="J8">
-        <v>0.9999739182163487</v>
+        <v>1.000017391081826</v>
       </c>
       <c r="K8">
         <v>1.000006519854835</v>
@@ -1020,7 +972,7 @@
         <v>0.999990219035592</v>
       </c>
       <c r="O8">
-        <v>0.999988697250746</v>
+        <v>0.9999886972507461</v>
       </c>
       <c r="P8">
         <v>0.9999956526420064</v>
@@ -1035,10 +987,10 @@
         <v>0.9999983694452137</v>
       </c>
       <c r="T8">
-        <v>0.999999420423956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999994204239558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.999964055384734</v>
+      </c>
+      <c r="D9">
         <v>1.000008985931841</v>
-      </c>
-      <c r="D9">
-        <v>0.999964055384734</v>
       </c>
       <c r="E9">
         <v>1.000008985931841</v>
       </c>
       <c r="F9">
+        <v>0.999964055384734</v>
+      </c>
+      <c r="G9">
         <v>1.000008985931841</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>1.000008985931841</v>
+      </c>
+      <c r="I9">
+        <v>0.9999802292271257</v>
+      </c>
+      <c r="J9">
         <v>1.000023965879322</v>
-      </c>
-      <c r="H9">
-        <v>0.9999802292271257</v>
-      </c>
-      <c r="I9">
-        <v>1.000008985931841</v>
-      </c>
-      <c r="J9">
-        <v>0.999964055384734</v>
       </c>
       <c r="K9">
         <v>1.000008985931841</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999992013811173</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9999220849273381</v>
+      </c>
+      <c r="D10">
         <v>1.000019478449922</v>
-      </c>
-      <c r="D10">
-        <v>0.9999220849273381</v>
       </c>
       <c r="E10">
         <v>1.000019478449922</v>
       </c>
       <c r="F10">
+        <v>0.9999220849273381</v>
+      </c>
+      <c r="G10">
         <v>1.000019478449922</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>1.000019478449922</v>
+      </c>
+      <c r="I10">
+        <v>0.9999571451388894</v>
+      </c>
+      <c r="J10">
         <v>1.000051946439757</v>
-      </c>
-      <c r="H10">
-        <v>0.9999571451388894</v>
-      </c>
-      <c r="I10">
-        <v>1.000019478449922</v>
-      </c>
-      <c r="J10">
-        <v>0.9999220849273381</v>
       </c>
       <c r="K10">
         <v>1.000019478449922</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999982686426249</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9998711341207789</v>
+      </c>
+      <c r="D11">
         <v>1.000032213862532</v>
-      </c>
-      <c r="D11">
-        <v>0.9998711341207789</v>
       </c>
       <c r="E11">
         <v>1.000032213862532</v>
       </c>
       <c r="F11">
+        <v>0.9998711341207789</v>
+      </c>
+      <c r="G11">
         <v>1.000032213862532</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="I11">
+        <v>0.999929124405881</v>
+      </c>
+      <c r="J11">
         <v>1.000085914821988</v>
-      </c>
-      <c r="H11">
-        <v>0.999929124405881</v>
-      </c>
-      <c r="I11">
-        <v>1.000032213862532</v>
-      </c>
-      <c r="J11">
-        <v>0.9998711341207789</v>
       </c>
       <c r="K11">
         <v>1.000032213862532</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999971358227073</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="D12">
         <v>0.999647161353216</v>
-      </c>
-      <c r="D12">
-        <v>1.001411375359713</v>
       </c>
       <c r="E12">
         <v>0.999647161353216</v>
       </c>
       <c r="F12">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="G12">
         <v>0.999647161353216</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="I12">
+        <v>1.000776259735137</v>
+      </c>
+      <c r="J12">
         <v>0.9990590816746322</v>
-      </c>
-      <c r="H12">
-        <v>1.000776259735137</v>
-      </c>
-      <c r="I12">
-        <v>0.999647161353216</v>
-      </c>
-      <c r="J12">
-        <v>1.001411375359713</v>
       </c>
       <c r="K12">
         <v>0.999647161353216</v>
@@ -1286,7 +1238,7 @@
         <v>1.000031366804855</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999087226448988</v>
+        <v>1.000365109954007</v>
       </c>
       <c r="D13">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="E13">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="F13">
         <v>1.000365109954007</v>
       </c>
-      <c r="E13">
-        <v>0.9999087226448988</v>
-      </c>
-      <c r="F13">
-        <v>0.9999087226448988</v>
-      </c>
       <c r="G13">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="H13">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="I13">
+        <v>1.000200807751938</v>
+      </c>
+      <c r="J13">
         <v>0.9997565922420613</v>
       </c>
-      <c r="H13">
-        <v>1.000200807751938</v>
-      </c>
-      <c r="I13">
-        <v>0.9999087226448988</v>
-      </c>
-      <c r="J13">
-        <v>1.000365109954007</v>
-      </c>
       <c r="K13">
-        <v>0.9999087226448988</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="L13">
-        <v>0.9999087226448988</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="M13">
         <v>1.000136916299453</v>
@@ -1345,10 +1297,10 @@
         <v>1.000022819472176</v>
       </c>
       <c r="T13">
-        <v>1.00000811298045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000008112980451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991428232313695</v>
+        <v>1.003428707622599</v>
       </c>
       <c r="D14">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="E14">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="F14">
         <v>1.003428707622599</v>
       </c>
-      <c r="E14">
-        <v>0.9991428232313695</v>
-      </c>
-      <c r="F14">
-        <v>0.9991428232313695</v>
-      </c>
       <c r="G14">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="H14">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="I14">
+        <v>1.001885785933631</v>
+      </c>
+      <c r="J14">
         <v>0.9977142028961798</v>
       </c>
-      <c r="H14">
-        <v>1.001885785933631</v>
-      </c>
-      <c r="I14">
-        <v>0.9991428232313695</v>
-      </c>
-      <c r="J14">
-        <v>1.003428707622599</v>
-      </c>
       <c r="K14">
-        <v>0.9991428232313695</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="L14">
-        <v>0.9991428232313695</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="M14">
         <v>1.001285765426984</v>
@@ -1410,7 +1362,7 @@
         <v>1.000076194357753</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="D15">
         <v>0.9997727920364161</v>
-      </c>
-      <c r="D15">
-        <v>1.000908831526256</v>
       </c>
       <c r="E15">
         <v>0.9997727920364161</v>
       </c>
       <c r="F15">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="G15">
         <v>0.9997727920364161</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="I15">
+        <v>1.000499858573895</v>
+      </c>
+      <c r="J15">
         <v>0.9993941100946063</v>
-      </c>
-      <c r="H15">
-        <v>1.000499858573895</v>
-      </c>
-      <c r="I15">
-        <v>0.9997727920364161</v>
-      </c>
-      <c r="J15">
-        <v>1.000908831526256</v>
       </c>
       <c r="K15">
         <v>0.9997727920364161</v>
@@ -1472,7 +1424,7 @@
         <v>1.000020196050668</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000140114137</v>
+        <v>0.9973358663747038</v>
       </c>
       <c r="D16">
-        <v>0.9999994371136622</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="E16">
-        <v>1.000000140114137</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="F16">
-        <v>1.000000140114137</v>
+        <v>0.9973358663747038</v>
       </c>
       <c r="G16">
-        <v>1.00000037820015</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="H16">
-        <v>0.999999689010368</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="I16">
-        <v>1.000000140114137</v>
+        <v>0.9985347321782571</v>
       </c>
       <c r="J16">
-        <v>0.9999994371136622</v>
+        <v>1.001776088368592</v>
       </c>
       <c r="K16">
-        <v>1.000000140114137</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="L16">
-        <v>1.000000140114137</v>
+        <v>1.000666033064557</v>
       </c>
       <c r="M16">
-        <v>0.9999997886138997</v>
+        <v>0.9990009497196303</v>
       </c>
       <c r="N16">
-        <v>0.9999997886138997</v>
+        <v>0.9990009497196303</v>
       </c>
       <c r="O16">
-        <v>0.9999997554127225</v>
+        <v>0.9988455438725059</v>
       </c>
       <c r="P16">
-        <v>0.9999999057806456</v>
+        <v>0.9995559775012725</v>
       </c>
       <c r="Q16">
-        <v>0.9999999057806456</v>
+        <v>0.9995559775012725</v>
       </c>
       <c r="R16">
-        <v>0.9999999643640185</v>
+        <v>0.9998334913920935</v>
       </c>
       <c r="S16">
-        <v>0.9999999643640185</v>
+        <v>0.9998334913920935</v>
       </c>
       <c r="T16">
-        <v>0.999999987444432</v>
+        <v>0.9999407976858704</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000002985063193</v>
+        <v>0.9978196726112037</v>
       </c>
       <c r="D17">
-        <v>0.9999880569948383</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="E17">
-        <v>1.000002985063193</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="F17">
-        <v>1.000002985063193</v>
+        <v>0.9978196726112037</v>
       </c>
       <c r="G17">
-        <v>1.000007965313616</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="H17">
-        <v>0.9999934297801691</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="I17">
-        <v>1.000002985063193</v>
+        <v>0.9988008234066645</v>
       </c>
       <c r="J17">
-        <v>0.9999880569948383</v>
+        <v>1.001453551628366</v>
       </c>
       <c r="K17">
-        <v>1.000002985063193</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="L17">
-        <v>1.000002985063193</v>
+        <v>1.000545081223005</v>
       </c>
       <c r="M17">
-        <v>0.9999955210290158</v>
+        <v>0.9991823769171044</v>
       </c>
       <c r="N17">
-        <v>0.9999955210290158</v>
+        <v>0.9991823769171044</v>
       </c>
       <c r="O17">
-        <v>0.999994823946067</v>
+        <v>0.9990551924136245</v>
       </c>
       <c r="P17">
-        <v>0.9999980090404083</v>
+        <v>0.9996366116857379</v>
       </c>
       <c r="Q17">
-        <v>0.9999980090404083</v>
+        <v>0.9996366116857379</v>
       </c>
       <c r="R17">
-        <v>0.9999992530461046</v>
+        <v>0.9998637290700547</v>
       </c>
       <c r="S17">
-        <v>0.9999992530461046</v>
+        <v>0.9998637290700547</v>
       </c>
       <c r="T17">
-        <v>0.9999997345463671</v>
+        <v>0.9999515485525415</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000010510376577</v>
+        <v>0.9987920035789549</v>
       </c>
       <c r="D18">
-        <v>0.9999579507224681</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="E18">
-        <v>1.000010510376577</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="F18">
-        <v>1.000010510376577</v>
+        <v>0.9987920035789549</v>
       </c>
       <c r="G18">
-        <v>1.000028037076494</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="H18">
-        <v>0.9999768697343611</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="I18">
-        <v>1.000010510376577</v>
+        <v>0.999335599513361</v>
       </c>
       <c r="J18">
-        <v>0.9999579507224681</v>
+        <v>1.000805333634543</v>
       </c>
       <c r="K18">
-        <v>1.000010510376577</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="L18">
-        <v>1.000010510376577</v>
+        <v>1.000301997013127</v>
       </c>
       <c r="M18">
-        <v>0.9999842305495226</v>
+        <v>0.9995470002960412</v>
       </c>
       <c r="N18">
-        <v>0.9999842305495226</v>
+        <v>0.9995470002960412</v>
       </c>
       <c r="O18">
-        <v>0.9999817769444688</v>
+        <v>0.9994765333684811</v>
       </c>
       <c r="P18">
-        <v>0.9999929904918741</v>
+        <v>0.9997986658684033</v>
       </c>
       <c r="Q18">
-        <v>0.9999929904918741</v>
+        <v>0.9997986658684033</v>
       </c>
       <c r="R18">
-        <v>0.9999973704630498</v>
+        <v>0.9999244986545843</v>
       </c>
       <c r="S18">
-        <v>0.9999973704630498</v>
+        <v>0.9999244986545843</v>
       </c>
       <c r="T18">
-        <v>0.9999990647771756</v>
+        <v>0.9999731546277069</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9986706859545973</v>
+      </c>
+      <c r="D19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="E19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="F19">
+        <v>0.9986706859545973</v>
+      </c>
+      <c r="G19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="H19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="I19">
+        <v>0.9992688781000391</v>
+      </c>
+      <c r="J19">
+        <v>1.000886208922915</v>
+      </c>
+      <c r="K19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="L19">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="M19">
+        <v>0.9995015074526565</v>
+      </c>
+      <c r="N19">
+        <v>0.9995015074526565</v>
+      </c>
+      <c r="O19">
+        <v>0.9994239643351174</v>
+      </c>
+      <c r="P19">
+        <v>0.9997784479520097</v>
+      </c>
+      <c r="Q19">
+        <v>0.9997784479520097</v>
+      </c>
+      <c r="R19">
+        <v>0.9999169182016862</v>
+      </c>
+      <c r="S19">
+        <v>0.9999169182016862</v>
+      </c>
+      <c r="T19">
+        <v>0.9999704599716165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999994371136625</v>
+      </c>
+      <c r="D20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="E20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="F20">
+        <v>0.9999994371136625</v>
+      </c>
+      <c r="G20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="H20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="I20">
+        <v>0.999999689010368</v>
+      </c>
+      <c r="J20">
+        <v>1.00000037820015</v>
+      </c>
+      <c r="K20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="L20">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="M20">
+        <v>0.9999997886138998</v>
+      </c>
+      <c r="N20">
+        <v>0.9999997886138998</v>
+      </c>
+      <c r="O20">
+        <v>0.9999997554127225</v>
+      </c>
+      <c r="P20">
+        <v>0.9999999057806456</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999057806456</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999643640185</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999643640185</v>
+      </c>
+      <c r="T20">
+        <v>0.999999987444432</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999880569948384</v>
+      </c>
+      <c r="D21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="E21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="F21">
+        <v>0.9999880569948384</v>
+      </c>
+      <c r="G21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="H21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="I21">
+        <v>0.9999934297801691</v>
+      </c>
+      <c r="J21">
+        <v>1.000007965313616</v>
+      </c>
+      <c r="K21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="L21">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="M21">
+        <v>0.9999955210290159</v>
+      </c>
+      <c r="N21">
+        <v>0.9999955210290159</v>
+      </c>
+      <c r="O21">
+        <v>0.999994823946067</v>
+      </c>
+      <c r="P21">
+        <v>0.9999980090404085</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999980090404085</v>
+      </c>
+      <c r="R21">
+        <v>0.9999992530461046</v>
+      </c>
+      <c r="S21">
+        <v>0.9999992530461046</v>
+      </c>
+      <c r="T21">
+        <v>0.9999997345463671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999579507224681</v>
+      </c>
+      <c r="D22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="E22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="F22">
+        <v>0.9999579507224681</v>
+      </c>
+      <c r="G22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="H22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="I22">
+        <v>0.9999768697343611</v>
+      </c>
+      <c r="J22">
+        <v>1.000028037076494</v>
+      </c>
+      <c r="K22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="L22">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="M22">
+        <v>0.9999842305495226</v>
+      </c>
+      <c r="N22">
+        <v>0.9999842305495226</v>
+      </c>
+      <c r="O22">
+        <v>0.9999817769444688</v>
+      </c>
+      <c r="P22">
+        <v>0.9999929904918741</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999929904918741</v>
+      </c>
+      <c r="R22">
+        <v>0.9999973704630498</v>
+      </c>
+      <c r="S22">
+        <v>0.9999973704630498</v>
+      </c>
+      <c r="T22">
+        <v>0.9999990647771756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999014877401711</v>
+      </c>
+      <c r="D23">
         <v>1.000024626443561</v>
       </c>
-      <c r="D19">
-        <v>0.999901487740171</v>
-      </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.000024626443561</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9999014877401711</v>
+      </c>
+      <c r="G23">
         <v>1.000024626443561</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>1.000024626443561</v>
+      </c>
+      <c r="I23">
+        <v>0.9999458147007604</v>
+      </c>
+      <c r="J23">
         <v>1.000065678678477</v>
       </c>
-      <c r="H19">
-        <v>0.9999458147007604</v>
-      </c>
-      <c r="I19">
+      <c r="K23">
         <v>1.000024626443561</v>
       </c>
-      <c r="J19">
-        <v>0.999901487740171</v>
-      </c>
-      <c r="K19">
+      <c r="L23">
         <v>1.000024626443561</v>
       </c>
-      <c r="L19">
-        <v>1.000024626443561</v>
-      </c>
-      <c r="M19">
-        <v>0.9999630570918658</v>
-      </c>
-      <c r="N19">
-        <v>0.9999630570918658</v>
-      </c>
-      <c r="O19">
+      <c r="M23">
+        <v>0.9999630570918659</v>
+      </c>
+      <c r="N23">
+        <v>0.9999630570918659</v>
+      </c>
+      <c r="O23">
         <v>0.9999573096281641</v>
       </c>
-      <c r="P19">
-        <v>0.9999835802090975</v>
-      </c>
-      <c r="Q19">
-        <v>0.9999835802090975</v>
-      </c>
-      <c r="R19">
-        <v>0.9999938417677133</v>
-      </c>
-      <c r="S19">
-        <v>0.9999938417677133</v>
-      </c>
-      <c r="T19">
+      <c r="P23">
+        <v>0.9999835802090976</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999835802090976</v>
+      </c>
+      <c r="R23">
+        <v>0.9999938417677134</v>
+      </c>
+      <c r="S23">
+        <v>0.9999938417677134</v>
+      </c>
+      <c r="T23">
         <v>0.9999978100750152</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998634186239378</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="D3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="E3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="F3">
-        <v>0.9998634186239378</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="G3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="H3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="I3">
-        <v>0.9999248791918819</v>
+        <v>0.9991966169380404</v>
       </c>
       <c r="J3">
-        <v>1.000091056818286</v>
+        <v>1.000973797665706</v>
       </c>
       <c r="K3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="L3">
-        <v>1.00003414437358</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="M3">
-        <v>0.9999487814987591</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="N3">
-        <v>0.9999487814987591</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="O3">
-        <v>0.9999408140631334</v>
+        <v>0.9993670313568682</v>
       </c>
       <c r="P3">
-        <v>0.9999772357903662</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="Q3">
-        <v>0.9999772357903662</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="R3">
-        <v>0.9999914629361697</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="S3">
-        <v>0.9999914629361697</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="T3">
-        <v>0.9999969646258077</v>
+        <v>0.9999675394344374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9997363311749591</v>
+        <v>0.9986760585333551</v>
       </c>
       <c r="D4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="E4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="F4">
-        <v>0.9997363311749591</v>
+        <v>0.9986760585333551</v>
       </c>
       <c r="G4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="H4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="I4">
-        <v>0.9998549809145069</v>
+        <v>0.999271831385578</v>
       </c>
       <c r="J4">
-        <v>1.000175782423695</v>
+        <v>1.000882628852029</v>
       </c>
       <c r="K4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="L4">
-        <v>1.000065917483334</v>
+        <v>1.000330984099888</v>
       </c>
       <c r="M4">
-        <v>0.9999011243291465</v>
+        <v>0.9995035213166217</v>
       </c>
       <c r="N4">
-        <v>0.9999011243291465</v>
+        <v>0.9995035213166217</v>
       </c>
       <c r="O4">
-        <v>0.9998857431909333</v>
+        <v>0.9994262913396071</v>
       </c>
       <c r="P4">
-        <v>0.9999560553805423</v>
+        <v>0.9997793422443774</v>
       </c>
       <c r="Q4">
-        <v>0.9999560553805423</v>
+        <v>0.9997793422443774</v>
       </c>
       <c r="R4">
-        <v>0.9999835209062402</v>
+        <v>0.9999172527082552</v>
       </c>
       <c r="S4">
-        <v>0.9999835209062402</v>
+        <v>0.9999172527082552</v>
       </c>
       <c r="T4">
-        <v>0.9999941411605272</v>
+        <v>0.9999705785117712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9994947103847434</v>
+        <v>0.998280235202157</v>
       </c>
       <c r="D5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="E5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="F5">
-        <v>0.9994947103847434</v>
+        <v>0.998280235202157</v>
       </c>
       <c r="G5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="H5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="I5">
-        <v>0.99972208928536</v>
+        <v>0.9990541284366596</v>
       </c>
       <c r="J5">
-        <v>1.000336862281878</v>
+        <v>1.001146510188679</v>
       </c>
       <c r="K5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="L5">
-        <v>1.000126321655468</v>
+        <v>1.000429936711591</v>
       </c>
       <c r="M5">
-        <v>0.9998105160201058</v>
+        <v>0.9993550859568738</v>
       </c>
       <c r="N5">
-        <v>0.9998105160201058</v>
+        <v>0.9993550859568738</v>
       </c>
       <c r="O5">
-        <v>0.9997810404418571</v>
+        <v>0.9992547667834691</v>
       </c>
       <c r="P5">
-        <v>0.9999157845652267</v>
+        <v>0.9997133695417796</v>
       </c>
       <c r="Q5">
-        <v>0.9999157845652267</v>
+        <v>0.9997133695417796</v>
       </c>
       <c r="R5">
-        <v>0.9999684188377871</v>
+        <v>0.9998925113342323</v>
       </c>
       <c r="S5">
-        <v>0.9999684188377871</v>
+        <v>0.9998925113342323</v>
       </c>
       <c r="T5">
-        <v>0.9999887711530645</v>
+        <v>0.999961780660378</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9992588949097213</v>
+        <v>0.9980391089204547</v>
       </c>
       <c r="D6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="E6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="F6">
-        <v>0.9992588949097213</v>
+        <v>0.9980391089204547</v>
       </c>
       <c r="G6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="H6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="I6">
-        <v>0.9995924021498892</v>
+        <v>0.9989215089204541</v>
       </c>
       <c r="J6">
-        <v>1.00049406993941</v>
+        <v>1.001307259090909</v>
       </c>
       <c r="K6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="L6">
-        <v>1.000185276655152</v>
+        <v>1.000490222840909</v>
       </c>
       <c r="M6">
-        <v>0.9997220857824365</v>
+        <v>0.9992646658806819</v>
       </c>
       <c r="N6">
-        <v>0.9997220857824365</v>
+        <v>0.9992646658806819</v>
       </c>
       <c r="O6">
-        <v>0.9996788579049207</v>
+        <v>0.9991502802272726</v>
       </c>
       <c r="P6">
-        <v>0.9998764827400083</v>
+        <v>0.9996731848674242</v>
       </c>
       <c r="Q6">
-        <v>0.9998764827400083</v>
+        <v>0.9996731848674242</v>
       </c>
       <c r="R6">
-        <v>0.9999536812187941</v>
+        <v>0.9998774443607954</v>
       </c>
       <c r="S6">
-        <v>0.9999536812187941</v>
+        <v>0.9998774443607954</v>
       </c>
       <c r="T6">
-        <v>0.9999835328274127</v>
+        <v>0.999956424242424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999990157588081</v>
+        <v>0.9966650641238717</v>
       </c>
       <c r="D7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="E7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="F7">
-        <v>0.999990157588081</v>
+        <v>0.9966650641238717</v>
       </c>
       <c r="G7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="H7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="I7">
-        <v>0.9999945852413287</v>
+        <v>0.998165785965661</v>
       </c>
       <c r="J7">
-        <v>1.000006564545106</v>
+        <v>1.002223293136996</v>
       </c>
       <c r="K7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="L7">
-        <v>1.000002459856986</v>
+        <v>1.000833731172481</v>
       </c>
       <c r="M7">
-        <v>0.9999963087225336</v>
+        <v>0.9987493976481763</v>
       </c>
       <c r="N7">
-        <v>0.9999963087225336</v>
+        <v>0.9987493976481763</v>
       </c>
       <c r="O7">
-        <v>0.9999957342287987</v>
+        <v>0.9985548604206711</v>
       </c>
       <c r="P7">
-        <v>0.9999983591006846</v>
+        <v>0.9994441754896112</v>
       </c>
       <c r="Q7">
-        <v>0.9999983591006846</v>
+        <v>0.9994441754896112</v>
       </c>
       <c r="R7">
-        <v>0.9999993842897601</v>
+        <v>0.9997915644103286</v>
       </c>
       <c r="S7">
-        <v>0.9999993842897601</v>
+        <v>0.9997915644103286</v>
       </c>
       <c r="T7">
-        <v>0.999999781157579</v>
+        <v>0.9999258894573284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999739182163487</v>
+        <v>0.996645938969756</v>
       </c>
       <c r="D8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="E8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="F8">
-        <v>0.9999739182163487</v>
+        <v>0.996645938969756</v>
       </c>
       <c r="G8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="H8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="I8">
-        <v>0.9999856536810541</v>
+        <v>0.9981552671322816</v>
       </c>
       <c r="J8">
-        <v>1.000017391081826</v>
+        <v>1.002236043268031</v>
       </c>
       <c r="K8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="L8">
-        <v>1.000006519854835</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="M8">
-        <v>0.999990219035592</v>
+        <v>0.9987422256819294</v>
       </c>
       <c r="N8">
-        <v>0.999990219035592</v>
+        <v>0.9987422256819294</v>
       </c>
       <c r="O8">
-        <v>0.9999886972507461</v>
+        <v>0.9985465728320468</v>
       </c>
       <c r="P8">
-        <v>0.9999956526420064</v>
+        <v>0.9994409879193205</v>
       </c>
       <c r="Q8">
-        <v>0.9999956526420064</v>
+        <v>0.9994409879193205</v>
       </c>
       <c r="R8">
-        <v>0.9999983694452137</v>
+        <v>0.9997903690380161</v>
       </c>
       <c r="S8">
-        <v>0.9999983694452137</v>
+        <v>0.9997903690380161</v>
       </c>
       <c r="T8">
-        <v>0.9999994204239558</v>
+        <v>0.9999254644253962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.999964055384734</v>
+        <v>0.9966288328645464</v>
       </c>
       <c r="D9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="E9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="F9">
-        <v>0.999964055384734</v>
+        <v>0.9966288328645464</v>
       </c>
       <c r="G9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="H9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="I9">
-        <v>0.9999802292271257</v>
+        <v>0.9981458587746038</v>
       </c>
       <c r="J9">
-        <v>1.000023965879322</v>
+        <v>1.002247447270614</v>
       </c>
       <c r="K9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="L9">
-        <v>1.000008985931841</v>
+        <v>1.000842788894409</v>
       </c>
       <c r="M9">
-        <v>0.9999865206582873</v>
+        <v>0.9987358108794777</v>
       </c>
       <c r="N9">
-        <v>0.9999865206582873</v>
+        <v>0.9987358108794777</v>
       </c>
       <c r="O9">
-        <v>0.9999844235145668</v>
+        <v>0.9985391601778532</v>
       </c>
       <c r="P9">
-        <v>0.9999940090828051</v>
+        <v>0.9994381368844548</v>
       </c>
       <c r="Q9">
-        <v>0.9999940090828051</v>
+        <v>0.9994381368844548</v>
       </c>
       <c r="R9">
-        <v>0.9999977532950639</v>
+        <v>0.9997892998869433</v>
       </c>
       <c r="S9">
-        <v>0.9999977532950639</v>
+        <v>0.9997892998869433</v>
       </c>
       <c r="T9">
-        <v>0.9999992013811173</v>
+        <v>0.9999250842654986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999220849273381</v>
+        <v>0.9965955673444662</v>
       </c>
       <c r="D10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="E10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="F10">
-        <v>0.9999220849273381</v>
+        <v>0.9965955673444662</v>
       </c>
       <c r="G10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="H10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="I10">
-        <v>0.9999571451388894</v>
+        <v>0.9981275627781749</v>
       </c>
       <c r="J10">
-        <v>1.000051946439757</v>
+        <v>1.002269624155362</v>
       </c>
       <c r="K10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="L10">
-        <v>1.000019478449922</v>
+        <v>1.000851105073046</v>
       </c>
       <c r="M10">
-        <v>0.9999707816886299</v>
+        <v>0.9987233362087562</v>
       </c>
       <c r="N10">
-        <v>0.9999707816886299</v>
+        <v>0.9987233362087562</v>
       </c>
       <c r="O10">
-        <v>0.9999662361720497</v>
+        <v>0.9985247450652291</v>
       </c>
       <c r="P10">
-        <v>0.9999870139423939</v>
+        <v>0.9994325924968529</v>
       </c>
       <c r="Q10">
-        <v>0.9999870139423939</v>
+        <v>0.9994325924968529</v>
       </c>
       <c r="R10">
-        <v>0.9999951300692758</v>
+        <v>0.9997872206409012</v>
       </c>
       <c r="S10">
-        <v>0.9999951300692758</v>
+        <v>0.9997872206409012</v>
       </c>
       <c r="T10">
-        <v>0.9999982686426249</v>
+        <v>0.9999243449161902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9998711341207789</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="D11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="E11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="F11">
-        <v>0.9998711341207789</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="G11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="H11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="I11">
-        <v>0.999929124405881</v>
+        <v>0.9999124442593864</v>
       </c>
       <c r="J11">
-        <v>1.000085914821988</v>
+        <v>1.000106130295606</v>
       </c>
       <c r="K11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="L11">
-        <v>1.000032213862532</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="M11">
-        <v>0.9999516739916555</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="N11">
-        <v>0.9999516739916555</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="O11">
-        <v>0.9999441574630641</v>
+        <v>0.9999310169950887</v>
       </c>
       <c r="P11">
-        <v>0.9999785206152811</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="Q11">
-        <v>0.9999785206152811</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="R11">
-        <v>0.9999919439270939</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="S11">
-        <v>0.9999919439270939</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="T11">
-        <v>0.9999971358227073</v>
+        <v>0.9999964625276335</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001411375359713</v>
+        <v>0.9999165398528463</v>
       </c>
       <c r="D12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="E12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="F12">
-        <v>1.001411375359713</v>
+        <v>0.9999165398528463</v>
       </c>
       <c r="G12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="H12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="I12">
-        <v>1.000776259735137</v>
+        <v>0.9999540957100957</v>
       </c>
       <c r="J12">
-        <v>0.9990590816746322</v>
+        <v>1.000055642968452</v>
       </c>
       <c r="K12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="L12">
-        <v>0.999647161353216</v>
+        <v>1.000020864475876</v>
       </c>
       <c r="M12">
-        <v>1.000529268356464</v>
+        <v>0.9999687021643611</v>
       </c>
       <c r="N12">
-        <v>1.000529268356464</v>
+        <v>0.9999687021643611</v>
       </c>
       <c r="O12">
-        <v>1.000611598816022</v>
+        <v>0.9999638333462726</v>
       </c>
       <c r="P12">
-        <v>1.000235232688715</v>
+        <v>0.9999860896015326</v>
       </c>
       <c r="Q12">
-        <v>1.000235232688715</v>
+        <v>0.9999860896015326</v>
       </c>
       <c r="R12">
-        <v>1.00008821485484</v>
+        <v>0.9999947833201184</v>
       </c>
       <c r="S12">
-        <v>1.00008821485484</v>
+        <v>0.9999947833201184</v>
       </c>
       <c r="T12">
-        <v>1.000031366804855</v>
+        <v>0.9999981453265034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000365109954007</v>
+        <v>0.999722567926337</v>
       </c>
       <c r="D13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="E13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="F13">
-        <v>1.000365109954007</v>
+        <v>0.999722567926337</v>
       </c>
       <c r="G13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="H13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="I13">
-        <v>1.000200807751938</v>
+        <v>0.9998474131906684</v>
       </c>
       <c r="J13">
-        <v>0.9997565922420613</v>
+        <v>1.000184956584865</v>
       </c>
       <c r="K13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="L13">
-        <v>0.9999087226448989</v>
+        <v>1.000069353281248</v>
       </c>
       <c r="M13">
-        <v>1.000136916299453</v>
+        <v>0.9998959606037925</v>
       </c>
       <c r="N13">
-        <v>1.000136916299453</v>
+        <v>0.9998959606037925</v>
       </c>
       <c r="O13">
-        <v>1.000158213450281</v>
+        <v>0.9998797781327511</v>
       </c>
       <c r="P13">
-        <v>1.000060851747935</v>
+        <v>0.9999537581629444</v>
       </c>
       <c r="Q13">
-        <v>1.000060851747935</v>
+        <v>0.9999537581629444</v>
       </c>
       <c r="R13">
-        <v>1.000022819472176</v>
+        <v>0.9999826569425203</v>
       </c>
       <c r="S13">
-        <v>1.000022819472176</v>
+        <v>0.9999826569425203</v>
       </c>
       <c r="T13">
-        <v>1.000008112980451</v>
+        <v>0.999993832924269</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.003428707622599</v>
+        <v>0.9996185936841999</v>
       </c>
       <c r="D14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="E14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="F14">
-        <v>1.003428707622599</v>
+        <v>0.9996185936841999</v>
       </c>
       <c r="G14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="H14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="I14">
-        <v>1.001885785933631</v>
+        <v>0.999790224295411</v>
       </c>
       <c r="J14">
-        <v>0.9977142028961798</v>
+        <v>1.000254273650403</v>
       </c>
       <c r="K14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="L14">
-        <v>0.9991428232313693</v>
+        <v>1.000095350730587</v>
       </c>
       <c r="M14">
-        <v>1.001285765426984</v>
+        <v>0.9998569722073932</v>
       </c>
       <c r="N14">
-        <v>1.001285765426984</v>
+        <v>0.9998569722073932</v>
       </c>
       <c r="O14">
-        <v>1.001485772262533</v>
+        <v>0.9998347229033991</v>
       </c>
       <c r="P14">
-        <v>1.000571451361779</v>
+        <v>0.9999364317151244</v>
       </c>
       <c r="Q14">
-        <v>1.000571451361779</v>
+        <v>0.9999364317151244</v>
       </c>
       <c r="R14">
-        <v>1.000214294329177</v>
+        <v>0.9999761614689899</v>
       </c>
       <c r="S14">
-        <v>1.000214294329177</v>
+        <v>0.9999761614689899</v>
       </c>
       <c r="T14">
-        <v>1.000076194357753</v>
+        <v>0.9999915239702957</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000908831526256</v>
+        <v>0.9998634186239378</v>
       </c>
       <c r="D15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="E15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="F15">
-        <v>1.000908831526256</v>
+        <v>0.9998634186239378</v>
       </c>
       <c r="G15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="H15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="I15">
-        <v>1.000499858573895</v>
+        <v>0.9999248791918819</v>
       </c>
       <c r="J15">
-        <v>0.9993941100946063</v>
+        <v>1.000091056818286</v>
       </c>
       <c r="K15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="L15">
-        <v>0.9997727920364161</v>
+        <v>1.00003414437358</v>
       </c>
       <c r="M15">
-        <v>1.000340811781336</v>
+        <v>0.9999487814987591</v>
       </c>
       <c r="N15">
-        <v>1.000340811781336</v>
+        <v>0.9999487814987591</v>
       </c>
       <c r="O15">
-        <v>1.000393827378856</v>
+        <v>0.9999408140631334</v>
       </c>
       <c r="P15">
-        <v>1.000151471866363</v>
+        <v>0.9999772357903662</v>
       </c>
       <c r="Q15">
-        <v>1.000151471866363</v>
+        <v>0.9999772357903662</v>
       </c>
       <c r="R15">
-        <v>1.000056801908876</v>
+        <v>0.9999914629361697</v>
       </c>
       <c r="S15">
-        <v>1.000056801908876</v>
+        <v>0.9999914629361697</v>
       </c>
       <c r="T15">
-        <v>1.000020196050668</v>
+        <v>0.9999969646258077</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9973358663747038</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="D16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="E16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="F16">
-        <v>0.9973358663747038</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="G16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="H16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="I16">
-        <v>0.9985347321782571</v>
+        <v>0.9998549809145069</v>
       </c>
       <c r="J16">
-        <v>1.001776088368592</v>
+        <v>1.000175782423695</v>
       </c>
       <c r="K16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="L16">
-        <v>1.000666033064557</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="M16">
-        <v>0.9990009497196303</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="N16">
-        <v>0.9990009497196303</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="O16">
-        <v>0.9988455438725059</v>
+        <v>0.9998857431909333</v>
       </c>
       <c r="P16">
-        <v>0.9995559775012725</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="Q16">
-        <v>0.9995559775012725</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="R16">
-        <v>0.9998334913920935</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="S16">
-        <v>0.9998334913920935</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="T16">
-        <v>0.9999407976858704</v>
+        <v>0.9999941411605272</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9978196726112037</v>
+        <v>0.9994947103847434</v>
       </c>
       <c r="D17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="E17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="F17">
-        <v>0.9978196726112037</v>
+        <v>0.9994947103847434</v>
       </c>
       <c r="G17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="H17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="I17">
-        <v>0.9988008234066645</v>
+        <v>0.99972208928536</v>
       </c>
       <c r="J17">
-        <v>1.001453551628366</v>
+        <v>1.000336862281878</v>
       </c>
       <c r="K17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="L17">
-        <v>1.000545081223005</v>
+        <v>1.000126321655468</v>
       </c>
       <c r="M17">
-        <v>0.9991823769171044</v>
+        <v>0.9998105160201058</v>
       </c>
       <c r="N17">
-        <v>0.9991823769171044</v>
+        <v>0.9998105160201058</v>
       </c>
       <c r="O17">
-        <v>0.9990551924136245</v>
+        <v>0.9997810404418571</v>
       </c>
       <c r="P17">
-        <v>0.9996366116857379</v>
+        <v>0.9999157845652267</v>
       </c>
       <c r="Q17">
-        <v>0.9996366116857379</v>
+        <v>0.9999157845652267</v>
       </c>
       <c r="R17">
-        <v>0.9998637290700547</v>
+        <v>0.9999684188377871</v>
       </c>
       <c r="S17">
-        <v>0.9998637290700547</v>
+        <v>0.9999684188377871</v>
       </c>
       <c r="T17">
-        <v>0.9999515485525415</v>
+        <v>0.9999887711530645</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9987920035789549</v>
+        <v>0.9992588949097213</v>
       </c>
       <c r="D18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="E18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="F18">
-        <v>0.9987920035789549</v>
+        <v>0.9992588949097213</v>
       </c>
       <c r="G18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="H18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="I18">
-        <v>0.999335599513361</v>
+        <v>0.9995924021498892</v>
       </c>
       <c r="J18">
-        <v>1.000805333634543</v>
+        <v>1.00049406993941</v>
       </c>
       <c r="K18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="L18">
-        <v>1.000301997013127</v>
+        <v>1.000185276655152</v>
       </c>
       <c r="M18">
-        <v>0.9995470002960412</v>
+        <v>0.9997220857824365</v>
       </c>
       <c r="N18">
-        <v>0.9995470002960412</v>
+        <v>0.9997220857824365</v>
       </c>
       <c r="O18">
-        <v>0.9994765333684811</v>
+        <v>0.9996788579049207</v>
       </c>
       <c r="P18">
-        <v>0.9997986658684033</v>
+        <v>0.9998764827400083</v>
       </c>
       <c r="Q18">
-        <v>0.9997986658684033</v>
+        <v>0.9998764827400083</v>
       </c>
       <c r="R18">
-        <v>0.9999244986545843</v>
+        <v>0.9999536812187941</v>
       </c>
       <c r="S18">
-        <v>0.9999244986545843</v>
+        <v>0.9999536812187941</v>
       </c>
       <c r="T18">
-        <v>0.9999731546277069</v>
+        <v>0.9999835328274127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9986706859545973</v>
+        <v>0.999990157588081</v>
       </c>
       <c r="D19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="E19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="F19">
-        <v>0.9986706859545973</v>
+        <v>0.999990157588081</v>
       </c>
       <c r="G19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="H19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="I19">
-        <v>0.9992688781000391</v>
+        <v>0.9999945852413287</v>
       </c>
       <c r="J19">
-        <v>1.000886208922915</v>
+        <v>1.000006564545106</v>
       </c>
       <c r="K19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="L19">
-        <v>1.000332328950716</v>
+        <v>1.000002459856986</v>
       </c>
       <c r="M19">
-        <v>0.9995015074526565</v>
+        <v>0.9999963087225336</v>
       </c>
       <c r="N19">
-        <v>0.9995015074526565</v>
+        <v>0.9999963087225336</v>
       </c>
       <c r="O19">
-        <v>0.9994239643351174</v>
+        <v>0.9999957342287987</v>
       </c>
       <c r="P19">
-        <v>0.9997784479520097</v>
+        <v>0.9999983591006846</v>
       </c>
       <c r="Q19">
-        <v>0.9997784479520097</v>
+        <v>0.9999983591006846</v>
       </c>
       <c r="R19">
-        <v>0.9999169182016862</v>
+        <v>0.9999993842897601</v>
       </c>
       <c r="S19">
-        <v>0.9999169182016862</v>
+        <v>0.9999993842897601</v>
       </c>
       <c r="T19">
-        <v>0.9999704599716165</v>
+        <v>0.999999781157579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999994371136625</v>
+        <v>0.9999739182163487</v>
       </c>
       <c r="D20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="E20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="F20">
-        <v>0.9999994371136625</v>
+        <v>0.9999739182163487</v>
       </c>
       <c r="G20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="H20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="I20">
-        <v>0.999999689010368</v>
+        <v>0.9999856536810541</v>
       </c>
       <c r="J20">
-        <v>1.00000037820015</v>
+        <v>1.000017391081826</v>
       </c>
       <c r="K20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="L20">
-        <v>1.000000140114137</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="M20">
-        <v>0.9999997886138998</v>
+        <v>0.999990219035592</v>
       </c>
       <c r="N20">
-        <v>0.9999997886138998</v>
+        <v>0.999990219035592</v>
       </c>
       <c r="O20">
-        <v>0.9999997554127225</v>
+        <v>0.9999886972507461</v>
       </c>
       <c r="P20">
-        <v>0.9999999057806456</v>
+        <v>0.9999956526420064</v>
       </c>
       <c r="Q20">
-        <v>0.9999999057806456</v>
+        <v>0.9999956526420064</v>
       </c>
       <c r="R20">
-        <v>0.9999999643640185</v>
+        <v>0.9999983694452137</v>
       </c>
       <c r="S20">
-        <v>0.9999999643640185</v>
+        <v>0.9999983694452137</v>
       </c>
       <c r="T20">
-        <v>0.999999987444432</v>
+        <v>0.9999994204239558</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999880569948384</v>
+        <v>0.999964055384734</v>
       </c>
       <c r="D21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="E21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="F21">
-        <v>0.9999880569948384</v>
+        <v>0.999964055384734</v>
       </c>
       <c r="G21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="H21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="I21">
-        <v>0.9999934297801691</v>
+        <v>0.9999802292271257</v>
       </c>
       <c r="J21">
-        <v>1.000007965313616</v>
+        <v>1.000023965879322</v>
       </c>
       <c r="K21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="L21">
-        <v>1.000002985063193</v>
+        <v>1.000008985931841</v>
       </c>
       <c r="M21">
-        <v>0.9999955210290159</v>
+        <v>0.9999865206582873</v>
       </c>
       <c r="N21">
-        <v>0.9999955210290159</v>
+        <v>0.9999865206582873</v>
       </c>
       <c r="O21">
-        <v>0.999994823946067</v>
+        <v>0.9999844235145668</v>
       </c>
       <c r="P21">
-        <v>0.9999980090404085</v>
+        <v>0.9999940090828051</v>
       </c>
       <c r="Q21">
-        <v>0.9999980090404085</v>
+        <v>0.9999940090828051</v>
       </c>
       <c r="R21">
-        <v>0.9999992530461046</v>
+        <v>0.9999977532950639</v>
       </c>
       <c r="S21">
-        <v>0.9999992530461046</v>
+        <v>0.9999977532950639</v>
       </c>
       <c r="T21">
-        <v>0.9999997345463671</v>
+        <v>0.9999992013811173</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999579507224681</v>
+        <v>0.9999220849273381</v>
       </c>
       <c r="D22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="E22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="F22">
-        <v>0.9999579507224681</v>
+        <v>0.9999220849273381</v>
       </c>
       <c r="G22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="H22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="I22">
-        <v>0.9999768697343611</v>
+        <v>0.9999571451388894</v>
       </c>
       <c r="J22">
-        <v>1.000028037076494</v>
+        <v>1.000051946439757</v>
       </c>
       <c r="K22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="L22">
-        <v>1.000010510376577</v>
+        <v>1.000019478449922</v>
       </c>
       <c r="M22">
-        <v>0.9999842305495226</v>
+        <v>0.9999707816886299</v>
       </c>
       <c r="N22">
-        <v>0.9999842305495226</v>
+        <v>0.9999707816886299</v>
       </c>
       <c r="O22">
-        <v>0.9999817769444688</v>
+        <v>0.9999662361720497</v>
       </c>
       <c r="P22">
-        <v>0.9999929904918741</v>
+        <v>0.9999870139423939</v>
       </c>
       <c r="Q22">
-        <v>0.9999929904918741</v>
+        <v>0.9999870139423939</v>
       </c>
       <c r="R22">
-        <v>0.9999973704630498</v>
+        <v>0.9999951300692758</v>
       </c>
       <c r="S22">
-        <v>0.9999973704630498</v>
+        <v>0.9999951300692758</v>
       </c>
       <c r="T22">
-        <v>0.9999990647771756</v>
+        <v>0.9999982686426249</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9998711341207789</v>
+      </c>
+      <c r="D23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="E23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="F23">
+        <v>0.9998711341207789</v>
+      </c>
+      <c r="G23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="H23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="I23">
+        <v>0.999929124405881</v>
+      </c>
+      <c r="J23">
+        <v>1.000085914821988</v>
+      </c>
+      <c r="K23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="L23">
+        <v>1.000032213862532</v>
+      </c>
+      <c r="M23">
+        <v>0.9999516739916555</v>
+      </c>
+      <c r="N23">
+        <v>0.9999516739916555</v>
+      </c>
+      <c r="O23">
+        <v>0.9999441574630641</v>
+      </c>
+      <c r="P23">
+        <v>0.9999785206152811</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999785206152811</v>
+      </c>
+      <c r="R23">
+        <v>0.9999919439270939</v>
+      </c>
+      <c r="S23">
+        <v>0.9999919439270939</v>
+      </c>
+      <c r="T23">
+        <v>0.9999971358227073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="D24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="E24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="F24">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="G24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="H24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="I24">
+        <v>1.000776259735137</v>
+      </c>
+      <c r="J24">
+        <v>0.9990590816746322</v>
+      </c>
+      <c r="K24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="L24">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="M24">
+        <v>1.000529268356464</v>
+      </c>
+      <c r="N24">
+        <v>1.000529268356464</v>
+      </c>
+      <c r="O24">
+        <v>1.000611598816022</v>
+      </c>
+      <c r="P24">
+        <v>1.000235232688715</v>
+      </c>
+      <c r="Q24">
+        <v>1.000235232688715</v>
+      </c>
+      <c r="R24">
+        <v>1.00008821485484</v>
+      </c>
+      <c r="S24">
+        <v>1.00008821485484</v>
+      </c>
+      <c r="T24">
+        <v>1.000031366804855</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000365109954007</v>
+      </c>
+      <c r="D25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="E25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="F25">
+        <v>1.000365109954007</v>
+      </c>
+      <c r="G25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="H25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="I25">
+        <v>1.000200807751938</v>
+      </c>
+      <c r="J25">
+        <v>0.9997565922420613</v>
+      </c>
+      <c r="K25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="L25">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="M25">
+        <v>1.000136916299453</v>
+      </c>
+      <c r="N25">
+        <v>1.000136916299453</v>
+      </c>
+      <c r="O25">
+        <v>1.000158213450281</v>
+      </c>
+      <c r="P25">
+        <v>1.000060851747935</v>
+      </c>
+      <c r="Q25">
+        <v>1.000060851747935</v>
+      </c>
+      <c r="R25">
+        <v>1.000022819472176</v>
+      </c>
+      <c r="S25">
+        <v>1.000022819472176</v>
+      </c>
+      <c r="T25">
+        <v>1.000008112980451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.003428707622599</v>
+      </c>
+      <c r="D26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="E26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="F26">
+        <v>1.003428707622599</v>
+      </c>
+      <c r="G26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="H26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="I26">
+        <v>1.001885785933631</v>
+      </c>
+      <c r="J26">
+        <v>0.9977142028961798</v>
+      </c>
+      <c r="K26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="L26">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="M26">
+        <v>1.001285765426984</v>
+      </c>
+      <c r="N26">
+        <v>1.001285765426984</v>
+      </c>
+      <c r="O26">
+        <v>1.001485772262533</v>
+      </c>
+      <c r="P26">
+        <v>1.000571451361779</v>
+      </c>
+      <c r="Q26">
+        <v>1.000571451361779</v>
+      </c>
+      <c r="R26">
+        <v>1.000214294329177</v>
+      </c>
+      <c r="S26">
+        <v>1.000214294329177</v>
+      </c>
+      <c r="T26">
+        <v>1.000076194357753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="D27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="E27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="F27">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="G27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="H27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="I27">
+        <v>1.000499858573895</v>
+      </c>
+      <c r="J27">
+        <v>0.9993941100946063</v>
+      </c>
+      <c r="K27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="L27">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="M27">
+        <v>1.000340811781336</v>
+      </c>
+      <c r="N27">
+        <v>1.000340811781336</v>
+      </c>
+      <c r="O27">
+        <v>1.000393827378856</v>
+      </c>
+      <c r="P27">
+        <v>1.000151471866363</v>
+      </c>
+      <c r="Q27">
+        <v>1.000151471866363</v>
+      </c>
+      <c r="R27">
+        <v>1.000056801908876</v>
+      </c>
+      <c r="S27">
+        <v>1.000056801908876</v>
+      </c>
+      <c r="T27">
+        <v>1.000020196050668</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9973358663747038</v>
+      </c>
+      <c r="D28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="E28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="F28">
+        <v>0.9973358663747038</v>
+      </c>
+      <c r="G28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="H28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="I28">
+        <v>0.9985347321782571</v>
+      </c>
+      <c r="J28">
+        <v>1.001776088368592</v>
+      </c>
+      <c r="K28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="L28">
+        <v>1.000666033064557</v>
+      </c>
+      <c r="M28">
+        <v>0.9990009497196303</v>
+      </c>
+      <c r="N28">
+        <v>0.9990009497196303</v>
+      </c>
+      <c r="O28">
+        <v>0.9988455438725059</v>
+      </c>
+      <c r="P28">
+        <v>0.9995559775012725</v>
+      </c>
+      <c r="Q28">
+        <v>0.9995559775012725</v>
+      </c>
+      <c r="R28">
+        <v>0.9998334913920935</v>
+      </c>
+      <c r="S28">
+        <v>0.9998334913920935</v>
+      </c>
+      <c r="T28">
+        <v>0.9999407976858704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9978196726112037</v>
+      </c>
+      <c r="D29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="E29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="F29">
+        <v>0.9978196726112037</v>
+      </c>
+      <c r="G29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="H29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="I29">
+        <v>0.9988008234066645</v>
+      </c>
+      <c r="J29">
+        <v>1.001453551628366</v>
+      </c>
+      <c r="K29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="L29">
+        <v>1.000545081223005</v>
+      </c>
+      <c r="M29">
+        <v>0.9991823769171044</v>
+      </c>
+      <c r="N29">
+        <v>0.9991823769171044</v>
+      </c>
+      <c r="O29">
+        <v>0.9990551924136245</v>
+      </c>
+      <c r="P29">
+        <v>0.9996366116857379</v>
+      </c>
+      <c r="Q29">
+        <v>0.9996366116857379</v>
+      </c>
+      <c r="R29">
+        <v>0.9998637290700547</v>
+      </c>
+      <c r="S29">
+        <v>0.9998637290700547</v>
+      </c>
+      <c r="T29">
+        <v>0.9999515485525415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9987920035789549</v>
+      </c>
+      <c r="D30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="E30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="F30">
+        <v>0.9987920035789549</v>
+      </c>
+      <c r="G30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="H30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="I30">
+        <v>0.999335599513361</v>
+      </c>
+      <c r="J30">
+        <v>1.000805333634543</v>
+      </c>
+      <c r="K30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="L30">
+        <v>1.000301997013127</v>
+      </c>
+      <c r="M30">
+        <v>0.9995470002960412</v>
+      </c>
+      <c r="N30">
+        <v>0.9995470002960412</v>
+      </c>
+      <c r="O30">
+        <v>0.9994765333684811</v>
+      </c>
+      <c r="P30">
+        <v>0.9997986658684033</v>
+      </c>
+      <c r="Q30">
+        <v>0.9997986658684033</v>
+      </c>
+      <c r="R30">
+        <v>0.9999244986545843</v>
+      </c>
+      <c r="S30">
+        <v>0.9999244986545843</v>
+      </c>
+      <c r="T30">
+        <v>0.9999731546277069</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9986706859545973</v>
+      </c>
+      <c r="D31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="E31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="F31">
+        <v>0.9986706859545973</v>
+      </c>
+      <c r="G31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="H31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="I31">
+        <v>0.9992688781000391</v>
+      </c>
+      <c r="J31">
+        <v>1.000886208922915</v>
+      </c>
+      <c r="K31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="L31">
+        <v>1.000332328950716</v>
+      </c>
+      <c r="M31">
+        <v>0.9995015074526565</v>
+      </c>
+      <c r="N31">
+        <v>0.9995015074526565</v>
+      </c>
+      <c r="O31">
+        <v>0.9994239643351174</v>
+      </c>
+      <c r="P31">
+        <v>0.9997784479520097</v>
+      </c>
+      <c r="Q31">
+        <v>0.9997784479520097</v>
+      </c>
+      <c r="R31">
+        <v>0.9999169182016862</v>
+      </c>
+      <c r="S31">
+        <v>0.9999169182016862</v>
+      </c>
+      <c r="T31">
+        <v>0.9999704599716165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9968358131506849</v>
+      </c>
+      <c r="D32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="E32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="F32">
+        <v>0.9968358131506849</v>
+      </c>
+      <c r="G32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="H32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="I32">
+        <v>0.9982597050684928</v>
+      </c>
+      <c r="J32">
+        <v>1.002109456438356</v>
+      </c>
+      <c r="K32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="L32">
+        <v>1.00079104630137</v>
+      </c>
+      <c r="M32">
+        <v>0.9988134297260276</v>
+      </c>
+      <c r="N32">
+        <v>0.9988134297260276</v>
+      </c>
+      <c r="O32">
+        <v>0.9986288548401827</v>
+      </c>
+      <c r="P32">
+        <v>0.9994726352511418</v>
+      </c>
+      <c r="Q32">
+        <v>0.9994726352511418</v>
+      </c>
+      <c r="R32">
+        <v>0.9998022380136989</v>
+      </c>
+      <c r="S32">
+        <v>0.9998022380136989</v>
+      </c>
+      <c r="T32">
+        <v>0.9999296855936075</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9980975468421054</v>
+      </c>
+      <c r="D33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="E33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="F33">
+        <v>0.9980975468421054</v>
+      </c>
+      <c r="G33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="H33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="I33">
+        <v>0.9989536415789475</v>
+      </c>
+      <c r="J33">
+        <v>1.00126830368421</v>
+      </c>
+      <c r="K33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="L33">
+        <v>1.000475617368421</v>
+      </c>
+      <c r="M33">
+        <v>0.9992865821052632</v>
+      </c>
+      <c r="N33">
+        <v>0.9992865821052632</v>
+      </c>
+      <c r="O33">
+        <v>0.9991756019298247</v>
+      </c>
+      <c r="P33">
+        <v>0.9996829271929825</v>
+      </c>
+      <c r="Q33">
+        <v>0.9996829271929825</v>
+      </c>
+      <c r="R33">
+        <v>0.9998810997368421</v>
+      </c>
+      <c r="S33">
+        <v>0.9998810997368421</v>
+      </c>
+      <c r="T33">
+        <v>0.9999577240350878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9962663210526317</v>
+      </c>
+      <c r="D34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="E34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="F34">
+        <v>0.9962663210526317</v>
+      </c>
+      <c r="G34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="H34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="I34">
+        <v>0.997946477368421</v>
+      </c>
+      <c r="J34">
+        <v>1.002489121052631</v>
+      </c>
+      <c r="K34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="L34">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="M34">
+        <v>0.9985998684210527</v>
+      </c>
+      <c r="N34">
+        <v>0.9985998684210527</v>
+      </c>
+      <c r="O34">
+        <v>0.9983820714035089</v>
+      </c>
+      <c r="P34">
+        <v>0.9993777175438598</v>
+      </c>
+      <c r="Q34">
+        <v>0.9993777175438598</v>
+      </c>
+      <c r="R34">
+        <v>0.9997666421052633</v>
+      </c>
+      <c r="S34">
+        <v>0.9997666421052633</v>
+      </c>
+      <c r="T34">
+        <v>0.9999170278070176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.995205886620408</v>
+      </c>
+      <c r="D35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="E35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="F35">
+        <v>0.995205886620408</v>
+      </c>
+      <c r="G35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="H35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="I35">
+        <v>0.997363238330696</v>
+      </c>
+      <c r="J35">
+        <v>1.003196062989294</v>
+      </c>
+      <c r="K35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="L35">
+        <v>1.001198522821007</v>
+      </c>
+      <c r="M35">
+        <v>0.9982022047207075</v>
+      </c>
+      <c r="N35">
+        <v>0.9982022047207075</v>
+      </c>
+      <c r="O35">
+        <v>0.9979225492573703</v>
+      </c>
+      <c r="P35">
+        <v>0.9992009774208074</v>
+      </c>
+      <c r="Q35">
+        <v>0.9992009774208074</v>
+      </c>
+      <c r="R35">
+        <v>0.9997003637708572</v>
+      </c>
+      <c r="S35">
+        <v>0.9997003637708572</v>
+      </c>
+      <c r="T35">
+        <v>0.9998934594005698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999994371136625</v>
+      </c>
+      <c r="D36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="E36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="F36">
+        <v>0.9999994371136625</v>
+      </c>
+      <c r="G36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="H36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="I36">
+        <v>0.999999689010368</v>
+      </c>
+      <c r="J36">
+        <v>1.00000037820015</v>
+      </c>
+      <c r="K36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="L36">
+        <v>1.000000140114137</v>
+      </c>
+      <c r="M36">
+        <v>0.9999997886138998</v>
+      </c>
+      <c r="N36">
+        <v>0.9999997886138998</v>
+      </c>
+      <c r="O36">
+        <v>0.9999997554127225</v>
+      </c>
+      <c r="P36">
+        <v>0.9999999057806456</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999057806456</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999643640185</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999643640185</v>
+      </c>
+      <c r="T36">
+        <v>0.999999987444432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999880569948384</v>
+      </c>
+      <c r="D37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="E37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="F37">
+        <v>0.9999880569948384</v>
+      </c>
+      <c r="G37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="H37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="I37">
+        <v>0.9999934297801691</v>
+      </c>
+      <c r="J37">
+        <v>1.000007965313616</v>
+      </c>
+      <c r="K37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="L37">
+        <v>1.000002985063193</v>
+      </c>
+      <c r="M37">
+        <v>0.9999955210290159</v>
+      </c>
+      <c r="N37">
+        <v>0.9999955210290159</v>
+      </c>
+      <c r="O37">
+        <v>0.999994823946067</v>
+      </c>
+      <c r="P37">
+        <v>0.9999980090404085</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999980090404085</v>
+      </c>
+      <c r="R37">
+        <v>0.9999992530461046</v>
+      </c>
+      <c r="S37">
+        <v>0.9999992530461046</v>
+      </c>
+      <c r="T37">
+        <v>0.9999997345463671</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999579507224681</v>
+      </c>
+      <c r="D38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="E38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="F38">
+        <v>0.9999579507224681</v>
+      </c>
+      <c r="G38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="H38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="I38">
+        <v>0.9999768697343611</v>
+      </c>
+      <c r="J38">
+        <v>1.000028037076494</v>
+      </c>
+      <c r="K38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="L38">
+        <v>1.000010510376577</v>
+      </c>
+      <c r="M38">
+        <v>0.9999842305495226</v>
+      </c>
+      <c r="N38">
+        <v>0.9999842305495226</v>
+      </c>
+      <c r="O38">
+        <v>0.9999817769444688</v>
+      </c>
+      <c r="P38">
+        <v>0.9999929904918741</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999929904918741</v>
+      </c>
+      <c r="R38">
+        <v>0.9999973704630498</v>
+      </c>
+      <c r="S38">
+        <v>0.9999973704630498</v>
+      </c>
+      <c r="T38">
+        <v>0.9999990647771756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999014877401711</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000024626443561</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000024626443561</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999014877401711</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000024626443561</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000024626443561</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999458147007604</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000065678678477</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000024626443561</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000024626443561</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999630570918659</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9999630570918659</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999573096281641</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999835802090976</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999835802090976</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999938417677134</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999938417677134</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999978100750152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9986940518836133</v>
+      </c>
+      <c r="D40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="E40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="F40">
+        <v>0.9986940518836133</v>
+      </c>
+      <c r="G40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="H40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="I40">
+        <v>0.999281727116634</v>
+      </c>
+      <c r="J40">
+        <v>1.000870634748227</v>
+      </c>
+      <c r="K40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="L40">
+        <v>1.000326485632473</v>
+      </c>
+      <c r="M40">
+        <v>0.9995102687580431</v>
+      </c>
+      <c r="N40">
+        <v>0.9995102687580431</v>
+      </c>
+      <c r="O40">
+        <v>0.9994340882109066</v>
+      </c>
+      <c r="P40">
+        <v>0.9997823410495196</v>
+      </c>
+      <c r="Q40">
+        <v>0.9997823410495196</v>
+      </c>
+      <c r="R40">
+        <v>0.9999183771952579</v>
+      </c>
+      <c r="S40">
+        <v>0.9999183771952579</v>
+      </c>
+      <c r="T40">
+        <v>0.9999709784409822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.00009288347333</v>
+      </c>
+      <c r="D41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="E41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="F41">
+        <v>1.00009288347333</v>
+      </c>
+      <c r="G41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="H41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="I41">
+        <v>1.000051084590129</v>
+      </c>
+      <c r="J41">
+        <v>0.9999380816364416</v>
+      </c>
+      <c r="K41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="L41">
+        <v>0.9999767777679754</v>
+      </c>
+      <c r="M41">
+        <v>1.000034830620653</v>
+      </c>
+      <c r="N41">
+        <v>1.000034830620653</v>
+      </c>
+      <c r="O41">
+        <v>1.000040248610478</v>
+      </c>
+      <c r="P41">
+        <v>1.00001547966976</v>
+      </c>
+      <c r="Q41">
+        <v>1.00001547966976</v>
+      </c>
+      <c r="R41">
+        <v>1.000005804194314</v>
+      </c>
+      <c r="S41">
+        <v>1.000005804194314</v>
+      </c>
+      <c r="T41">
+        <v>1.000002063833971</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9977473754226889</v>
+      </c>
+      <c r="D42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="E42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="F42">
+        <v>0.9977473754226889</v>
+      </c>
+      <c r="G42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="H42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="I42">
+        <v>0.9987610530046011</v>
+      </c>
+      <c r="J42">
+        <v>1.001501751289016</v>
+      </c>
+      <c r="K42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="L42">
+        <v>1.000563153683133</v>
+      </c>
+      <c r="M42">
+        <v>0.9991552645529111</v>
+      </c>
+      <c r="N42">
+        <v>0.9991552645529111</v>
+      </c>
+      <c r="O42">
+        <v>0.9990238607034745</v>
+      </c>
+      <c r="P42">
+        <v>0.9996245609296519</v>
+      </c>
+      <c r="Q42">
+        <v>0.9996245609296519</v>
+      </c>
+      <c r="R42">
+        <v>0.9998592091180223</v>
+      </c>
+      <c r="S42">
+        <v>0.9998592091180223</v>
+      </c>
+      <c r="T42">
+        <v>0.9999499401276178</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00003414437358</v>
+        <v>0.9999739182163487</v>
       </c>
       <c r="D3">
-        <v>0.9998634186239378</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="E3">
-        <v>1.00003414437358</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="F3">
-        <v>1.00003414437358</v>
+        <v>0.9999739182163487</v>
       </c>
       <c r="G3">
-        <v>1.000091056818286</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="H3">
-        <v>0.9999248791918819</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="I3">
-        <v>1.00003414437358</v>
+        <v>0.9999856536810541</v>
       </c>
       <c r="J3">
-        <v>0.9998634186239378</v>
+        <v>1.000017391081826</v>
       </c>
       <c r="K3">
-        <v>1.00003414437358</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="L3">
-        <v>1.00003414437358</v>
+        <v>1.000006519854835</v>
       </c>
       <c r="M3">
-        <v>0.9999487814987591</v>
+        <v>0.999990219035592</v>
       </c>
       <c r="N3">
-        <v>0.9999487814987591</v>
+        <v>0.999990219035592</v>
       </c>
       <c r="O3">
-        <v>0.9999408140631334</v>
+        <v>0.9999886972507461</v>
       </c>
       <c r="P3">
-        <v>0.9999772357903662</v>
+        <v>0.9999956526420064</v>
       </c>
       <c r="Q3">
-        <v>0.9999772357903662</v>
+        <v>0.9999956526420064</v>
       </c>
       <c r="R3">
-        <v>0.9999914629361697</v>
+        <v>0.9999983694452137</v>
       </c>
       <c r="S3">
-        <v>0.9999914629361697</v>
+        <v>0.9999983694452137</v>
       </c>
       <c r="T3">
-        <v>0.9999969646258077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999994204239558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000065917483334</v>
+        <v>0.9986940518836133</v>
       </c>
       <c r="D4">
-        <v>0.9997363311749592</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="E4">
-        <v>1.000065917483334</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="F4">
-        <v>1.000065917483334</v>
+        <v>0.9986940518836133</v>
       </c>
       <c r="G4">
-        <v>1.000175782423695</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="H4">
-        <v>0.9998549809145069</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="I4">
-        <v>1.000065917483334</v>
+        <v>0.999281727116634</v>
       </c>
       <c r="J4">
-        <v>0.9997363311749592</v>
+        <v>1.000870634748227</v>
       </c>
       <c r="K4">
-        <v>1.000065917483334</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="L4">
-        <v>1.000065917483334</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="M4">
-        <v>0.9999011243291464</v>
+        <v>0.9995102687580431</v>
       </c>
       <c r="N4">
-        <v>0.9999011243291464</v>
+        <v>0.9995102687580431</v>
       </c>
       <c r="O4">
-        <v>0.9998857431909332</v>
+        <v>0.9994340882109066</v>
       </c>
       <c r="P4">
-        <v>0.999956055380542</v>
+        <v>0.9997823410495196</v>
       </c>
       <c r="Q4">
-        <v>0.999956055380542</v>
+        <v>0.9997823410495196</v>
       </c>
       <c r="R4">
-        <v>0.9999835209062399</v>
+        <v>0.9999183771952579</v>
       </c>
       <c r="S4">
-        <v>0.9999835209062399</v>
+        <v>0.9999183771952579</v>
       </c>
       <c r="T4">
-        <v>0.9999941411605269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999709784409822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000126321655468</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="D5">
-        <v>0.9994947103847434</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="E5">
-        <v>1.000126321655468</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="F5">
-        <v>1.000126321655468</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="G5">
-        <v>1.000336862281878</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="H5">
-        <v>0.99972208928536</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="I5">
-        <v>1.000126321655468</v>
+        <v>0.9991966169380404</v>
       </c>
       <c r="J5">
-        <v>0.9994947103847434</v>
+        <v>1.000973797665706</v>
       </c>
       <c r="K5">
-        <v>1.000126321655468</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="L5">
-        <v>1.000126321655468</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="M5">
-        <v>0.9998105160201058</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="N5">
-        <v>0.9998105160201058</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="O5">
-        <v>0.9997810404418571</v>
+        <v>0.9993670313568682</v>
       </c>
       <c r="P5">
-        <v>0.9999157845652267</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="Q5">
-        <v>0.9999157845652267</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="R5">
-        <v>0.9999684188377871</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="S5">
-        <v>0.9999684188377871</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="T5">
-        <v>0.9999887711530645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999675394344374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000185276655152</v>
+        <v>0.995205886620408</v>
       </c>
       <c r="D6">
-        <v>0.9992588949097213</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="E6">
-        <v>1.000185276655152</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="F6">
-        <v>1.000185276655152</v>
+        <v>0.995205886620408</v>
       </c>
       <c r="G6">
-        <v>1.00049406993941</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="H6">
-        <v>0.9995924021498892</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="I6">
-        <v>1.000185276655152</v>
+        <v>0.997363238330696</v>
       </c>
       <c r="J6">
-        <v>0.9992588949097213</v>
+        <v>1.003196062989294</v>
       </c>
       <c r="K6">
-        <v>1.000185276655152</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="L6">
-        <v>1.000185276655152</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="M6">
-        <v>0.9997220857824365</v>
+        <v>0.9982022047207075</v>
       </c>
       <c r="N6">
-        <v>0.9997220857824365</v>
+        <v>0.9982022047207075</v>
       </c>
       <c r="O6">
-        <v>0.9996788579049207</v>
+        <v>0.9979225492573703</v>
       </c>
       <c r="P6">
-        <v>0.9998764827400083</v>
+        <v>0.9992009774208074</v>
       </c>
       <c r="Q6">
-        <v>0.9998764827400083</v>
+        <v>0.9992009774208074</v>
       </c>
       <c r="R6">
-        <v>0.9999536812187941</v>
+        <v>0.9997003637708572</v>
       </c>
       <c r="S6">
-        <v>0.9999536812187941</v>
+        <v>0.9997003637708572</v>
       </c>
       <c r="T6">
-        <v>0.9999835328274127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9998934594005698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000002459856987</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="D7">
-        <v>0.999990157588081</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="E7">
-        <v>1.000002459856987</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="F7">
-        <v>1.000002459856987</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="G7">
-        <v>1.000006564545106</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="H7">
-        <v>0.9999945852413288</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="I7">
-        <v>1.000002459856987</v>
+        <v>0.9999124442593864</v>
       </c>
       <c r="J7">
-        <v>0.999990157588081</v>
+        <v>1.000106130295606</v>
       </c>
       <c r="K7">
-        <v>1.000002459856987</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="L7">
-        <v>1.000002459856987</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="M7">
-        <v>0.9999963087225338</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="N7">
-        <v>0.9999963087225338</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="O7">
-        <v>0.9999957342287988</v>
+        <v>0.9999310169950887</v>
       </c>
       <c r="P7">
-        <v>0.9999983591006846</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="Q7">
-        <v>0.9999983591006846</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="R7">
-        <v>0.9999993842897601</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="S7">
-        <v>0.9999993842897601</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="T7">
-        <v>0.999999781157579</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999964625276335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000006519854835</v>
+        <v>0.9999880569948384</v>
       </c>
       <c r="D8">
-        <v>0.9999739182163487</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="E8">
-        <v>1.000006519854835</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="F8">
-        <v>1.000006519854835</v>
+        <v>0.9999880569948384</v>
       </c>
       <c r="G8">
-        <v>1.000017391081827</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="H8">
-        <v>0.999985653681054</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="I8">
-        <v>1.000006519854835</v>
+        <v>0.9999934297801691</v>
       </c>
       <c r="J8">
-        <v>0.9999739182163487</v>
+        <v>1.000007965313616</v>
       </c>
       <c r="K8">
-        <v>1.000006519854835</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="L8">
-        <v>1.000006519854835</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="M8">
-        <v>0.999990219035592</v>
+        <v>0.9999955210290159</v>
       </c>
       <c r="N8">
-        <v>0.999990219035592</v>
+        <v>0.9999955210290159</v>
       </c>
       <c r="O8">
-        <v>0.999988697250746</v>
+        <v>0.999994823946067</v>
       </c>
       <c r="P8">
-        <v>0.9999956526420064</v>
+        <v>0.9999980090404085</v>
       </c>
       <c r="Q8">
-        <v>0.9999956526420064</v>
+        <v>0.9999980090404085</v>
       </c>
       <c r="R8">
-        <v>0.9999983694452137</v>
+        <v>0.9999992530461046</v>
       </c>
       <c r="S8">
-        <v>0.9999983694452137</v>
+        <v>0.9999992530461046</v>
       </c>
       <c r="T8">
-        <v>0.999999420423956</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999997345463671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000008985931841</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="D9">
-        <v>0.999964055384734</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="E9">
-        <v>1.000008985931841</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="F9">
-        <v>1.000008985931841</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="G9">
-        <v>1.000023965879322</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="H9">
-        <v>0.9999802292271257</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="I9">
-        <v>1.000008985931841</v>
+        <v>0.9998549809145069</v>
       </c>
       <c r="J9">
-        <v>0.999964055384734</v>
+        <v>1.000175782423695</v>
       </c>
       <c r="K9">
-        <v>1.000008985931841</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="L9">
-        <v>1.000008985931841</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="M9">
-        <v>0.9999865206582873</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="N9">
-        <v>0.9999865206582873</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="O9">
-        <v>0.9999844235145668</v>
+        <v>0.9998857431909333</v>
       </c>
       <c r="P9">
-        <v>0.9999940090828051</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="Q9">
-        <v>0.9999940090828051</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="R9">
-        <v>0.9999977532950639</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="S9">
-        <v>0.9999977532950639</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="T9">
-        <v>0.9999992013811173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999941411605272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000019478449922</v>
+        <v>0.9951345753666027</v>
       </c>
       <c r="D10">
-        <v>0.9999220849273381</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="E10">
-        <v>1.000019478449922</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="F10">
-        <v>1.000019478449922</v>
+        <v>0.9951345753666027</v>
       </c>
       <c r="G10">
-        <v>1.000051946439757</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="H10">
-        <v>0.9999571451388894</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="I10">
-        <v>1.000019478449922</v>
+        <v>0.997324017329167</v>
       </c>
       <c r="J10">
-        <v>0.9999220849273381</v>
+        <v>1.003243603333979</v>
       </c>
       <c r="K10">
-        <v>1.000019478449922</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="L10">
-        <v>1.000019478449922</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="M10">
-        <v>0.9999707816886299</v>
+        <v>0.9981754629403234</v>
       </c>
       <c r="N10">
-        <v>0.9999707816886299</v>
+        <v>0.9981754629403234</v>
       </c>
       <c r="O10">
-        <v>0.9999662361720497</v>
+        <v>0.9978916477366045</v>
       </c>
       <c r="P10">
-        <v>0.9999870139423939</v>
+        <v>0.9991890921315637</v>
       </c>
       <c r="Q10">
-        <v>0.9999870139423939</v>
+        <v>0.9991890921315637</v>
       </c>
       <c r="R10">
-        <v>0.9999951300692758</v>
+        <v>0.9996959067271839</v>
       </c>
       <c r="S10">
-        <v>0.9999951300692758</v>
+        <v>0.9996959067271839</v>
       </c>
       <c r="T10">
-        <v>0.9999982686426249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9998918745953137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000032213862532</v>
+        <v>0.9986075131691332</v>
       </c>
       <c r="D11">
-        <v>0.9998711341207789</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="E11">
-        <v>1.000032213862532</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="F11">
-        <v>1.000032213862532</v>
+        <v>0.9986075131691332</v>
       </c>
       <c r="G11">
-        <v>1.000085914821988</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="H11">
-        <v>0.999929124405881</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="I11">
-        <v>1.000032213862532</v>
+        <v>0.9992341310899577</v>
       </c>
       <c r="J11">
-        <v>0.9998711341207789</v>
+        <v>1.000928327254135</v>
       </c>
       <c r="K11">
-        <v>1.000032213862532</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="L11">
-        <v>1.000032213862532</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="M11">
-        <v>0.9999516739916555</v>
+        <v>0.9994778164187906</v>
       </c>
       <c r="N11">
-        <v>0.9999516739916555</v>
+        <v>0.9994778164187906</v>
       </c>
       <c r="O11">
-        <v>0.9999441574630641</v>
+        <v>0.9993965879758463</v>
       </c>
       <c r="P11">
-        <v>0.9999785206152811</v>
+        <v>0.9997679175020098</v>
       </c>
       <c r="Q11">
-        <v>0.9999785206152811</v>
+        <v>0.9997679175020098</v>
       </c>
       <c r="R11">
-        <v>0.9999919439270939</v>
+        <v>0.9999129680436194</v>
       </c>
       <c r="S11">
-        <v>0.9999919439270939</v>
+        <v>0.9999129680436194</v>
       </c>
       <c r="T11">
-        <v>0.9999971358227073</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999690550864284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.999647161353216</v>
+        <v>0.9985047027894761</v>
       </c>
       <c r="D12">
-        <v>1.001411375359713</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="E12">
-        <v>0.999647161353216</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="F12">
-        <v>0.999647161353216</v>
+        <v>0.9985047027894761</v>
       </c>
       <c r="G12">
-        <v>0.9990590816746322</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="H12">
-        <v>1.000776259735137</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="I12">
-        <v>0.999647161353216</v>
+        <v>0.9991775866947358</v>
       </c>
       <c r="J12">
-        <v>1.001411375359713</v>
+        <v>1.000996863957894</v>
       </c>
       <c r="K12">
-        <v>0.999647161353216</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="L12">
-        <v>0.999647161353216</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="M12">
-        <v>1.000529268356464</v>
+        <v>0.9994392628263169</v>
       </c>
       <c r="N12">
-        <v>1.000529268356464</v>
+        <v>0.9994392628263169</v>
       </c>
       <c r="O12">
-        <v>1.000611598816022</v>
+        <v>0.9993520374491233</v>
       </c>
       <c r="P12">
-        <v>1.000235232688715</v>
+        <v>0.9997507828385972</v>
       </c>
       <c r="Q12">
-        <v>1.000235232688715</v>
+        <v>0.9997507828385972</v>
       </c>
       <c r="R12">
-        <v>1.00008821485484</v>
+        <v>0.9999065428447373</v>
       </c>
       <c r="S12">
-        <v>1.00008821485484</v>
+        <v>0.9999065428447373</v>
       </c>
       <c r="T12">
-        <v>1.000031366804855</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999667703385966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9999087226448988</v>
+        <v>1.000956903401709</v>
       </c>
       <c r="D13">
-        <v>1.000365109954007</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="E13">
-        <v>0.9999087226448988</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="F13">
-        <v>0.9999087226448988</v>
+        <v>1.000956903401709</v>
       </c>
       <c r="G13">
-        <v>0.9997565922420613</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="H13">
-        <v>1.000200807751938</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="I13">
-        <v>0.9999087226448988</v>
+        <v>1.000526296510055</v>
       </c>
       <c r="J13">
-        <v>1.000365109954007</v>
+        <v>0.9993620663359735</v>
       </c>
       <c r="K13">
-        <v>0.9999087226448988</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="L13">
-        <v>0.9999087226448988</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="M13">
-        <v>1.000136916299453</v>
+        <v>1.000358838665575</v>
       </c>
       <c r="N13">
-        <v>1.000136916299453</v>
+        <v>1.000358838665575</v>
       </c>
       <c r="O13">
-        <v>1.000158213450281</v>
+        <v>1.000414657947069</v>
       </c>
       <c r="P13">
-        <v>1.000060851747935</v>
+        <v>1.00015948375353</v>
       </c>
       <c r="Q13">
-        <v>1.000060851747935</v>
+        <v>1.00015948375353</v>
       </c>
       <c r="R13">
-        <v>1.000022819472176</v>
+        <v>1.000059806297508</v>
       </c>
       <c r="S13">
-        <v>1.000022819472176</v>
+        <v>1.000059806297508</v>
       </c>
       <c r="T13">
-        <v>1.00000811298045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000021264672677</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9991428232313695</v>
+        <v>0.9915939600000014</v>
       </c>
       <c r="D14">
-        <v>1.003428707622599</v>
+        <v>1.0021015</v>
       </c>
       <c r="E14">
-        <v>0.9991428232313695</v>
+        <v>1.0021015</v>
       </c>
       <c r="F14">
-        <v>0.9991428232313695</v>
+        <v>0.9915939600000014</v>
       </c>
       <c r="G14">
-        <v>0.9977142028961798</v>
+        <v>1.0021015</v>
       </c>
       <c r="H14">
-        <v>1.001885785933631</v>
+        <v>1.0021015</v>
       </c>
       <c r="I14">
-        <v>0.9991428232313695</v>
+        <v>0.9953766800000003</v>
       </c>
       <c r="J14">
-        <v>1.003428707622599</v>
+        <v>1.005603999999999</v>
       </c>
       <c r="K14">
-        <v>0.9991428232313695</v>
+        <v>1.0021015</v>
       </c>
       <c r="L14">
-        <v>0.9991428232313695</v>
+        <v>1.0021015</v>
       </c>
       <c r="M14">
-        <v>1.001285765426984</v>
+        <v>0.9968477300000007</v>
       </c>
       <c r="N14">
-        <v>1.001285765426984</v>
+        <v>0.9968477300000007</v>
       </c>
       <c r="O14">
-        <v>1.001485772262533</v>
+        <v>0.9963573800000006</v>
       </c>
       <c r="P14">
-        <v>1.000571451361779</v>
+        <v>0.9985989866666672</v>
       </c>
       <c r="Q14">
-        <v>1.000571451361779</v>
+        <v>0.9985989866666672</v>
       </c>
       <c r="R14">
-        <v>1.000214294329177</v>
+        <v>0.9994746150000005</v>
       </c>
       <c r="S14">
-        <v>1.000214294329177</v>
+        <v>0.9994746150000005</v>
       </c>
       <c r="T14">
-        <v>1.000076194357753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9998131900000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9997727920364161</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D15">
-        <v>1.000908831526256</v>
+        <v>1.0010055</v>
       </c>
       <c r="E15">
-        <v>0.9997727920364161</v>
+        <v>1.0010055</v>
       </c>
       <c r="F15">
-        <v>0.9997727920364161</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G15">
-        <v>0.9993941100946063</v>
+        <v>1.0010055</v>
       </c>
       <c r="H15">
-        <v>1.000499858573895</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>0.9997727920364161</v>
+        <v>0.99778785</v>
       </c>
       <c r="J15">
-        <v>1.000908831526256</v>
+        <v>1.0026814</v>
       </c>
       <c r="K15">
-        <v>0.9997727920364161</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>0.9997727920364161</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>1.000340811781336</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>1.000340811781336</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>1.000393827378856</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>1.000151471866363</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>1.000151471866363</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>1.000056801908876</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>1.000056801908876</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>1.000020196050668</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000140114137</v>
+        <v>0.99041099</v>
       </c>
       <c r="D16">
-        <v>0.9999994371136622</v>
+        <v>1.0023973</v>
       </c>
       <c r="E16">
-        <v>1.000000140114137</v>
+        <v>1.0023973</v>
       </c>
       <c r="F16">
-        <v>1.000000140114137</v>
+        <v>0.99041099</v>
       </c>
       <c r="G16">
-        <v>1.00000037820015</v>
+        <v>1.0023973</v>
       </c>
       <c r="H16">
-        <v>0.999999689010368</v>
+        <v>1.0023973</v>
       </c>
       <c r="I16">
-        <v>1.000000140114137</v>
+        <v>0.9947260400000001</v>
       </c>
       <c r="J16">
-        <v>0.9999994371136622</v>
+        <v>1.0063927</v>
       </c>
       <c r="K16">
-        <v>1.000000140114137</v>
+        <v>1.0023973</v>
       </c>
       <c r="L16">
-        <v>1.000000140114137</v>
+        <v>1.0023973</v>
       </c>
       <c r="M16">
-        <v>0.9999997886138997</v>
+        <v>0.996404145</v>
       </c>
       <c r="N16">
-        <v>0.9999997886138997</v>
+        <v>0.996404145</v>
       </c>
       <c r="O16">
-        <v>0.9999997554127225</v>
+        <v>0.9958447766666666</v>
       </c>
       <c r="P16">
-        <v>0.9999999057806456</v>
+        <v>0.9984018633333333</v>
       </c>
       <c r="Q16">
-        <v>0.9999999057806456</v>
+        <v>0.9984018633333333</v>
       </c>
       <c r="R16">
-        <v>0.9999999643640185</v>
+        <v>0.9994007224999999</v>
       </c>
       <c r="S16">
-        <v>0.9999999643640185</v>
+        <v>0.9994007224999999</v>
       </c>
       <c r="T16">
-        <v>0.999999987444432</v>
+        <v>0.9997869383333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000002985063193</v>
+        <v>1.0019406</v>
       </c>
       <c r="D17">
-        <v>0.9999880569948383</v>
+        <v>0.99951485</v>
       </c>
       <c r="E17">
-        <v>1.000002985063193</v>
+        <v>0.99951485</v>
       </c>
       <c r="F17">
-        <v>1.000002985063193</v>
+        <v>1.0019406</v>
       </c>
       <c r="G17">
-        <v>1.000007965313616</v>
+        <v>0.99951485</v>
       </c>
       <c r="H17">
-        <v>0.9999934297801691</v>
+        <v>0.99951485</v>
       </c>
       <c r="I17">
-        <v>1.000002985063193</v>
+        <v>1.0010673</v>
       </c>
       <c r="J17">
-        <v>0.9999880569948383</v>
+        <v>0.99870627</v>
       </c>
       <c r="K17">
-        <v>1.000002985063193</v>
+        <v>0.99951485</v>
       </c>
       <c r="L17">
-        <v>1.000002985063193</v>
+        <v>0.99951485</v>
       </c>
       <c r="M17">
-        <v>0.9999955210290158</v>
+        <v>1.000727725</v>
       </c>
       <c r="N17">
-        <v>0.9999955210290158</v>
+        <v>1.000727725</v>
       </c>
       <c r="O17">
-        <v>0.999994823946067</v>
+        <v>1.000840916666667</v>
       </c>
       <c r="P17">
-        <v>0.9999980090404083</v>
+        <v>1.000323433333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999980090404083</v>
+        <v>1.000323433333333</v>
       </c>
       <c r="R17">
-        <v>0.9999992530461046</v>
+        <v>1.0001212875</v>
       </c>
       <c r="S17">
-        <v>0.9999992530461046</v>
+        <v>1.0001212875</v>
       </c>
       <c r="T17">
-        <v>0.9999997345463671</v>
+        <v>1.00004312</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000010510376577</v>
+        <v>0.9968358131506849</v>
       </c>
       <c r="D18">
-        <v>0.9999579507224681</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="E18">
-        <v>1.000010510376577</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="F18">
-        <v>1.000010510376577</v>
+        <v>0.9968358131506849</v>
       </c>
       <c r="G18">
-        <v>1.000028037076494</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="H18">
-        <v>0.9999768697343611</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="I18">
-        <v>1.000010510376577</v>
+        <v>0.9982597050684928</v>
       </c>
       <c r="J18">
-        <v>0.9999579507224681</v>
+        <v>1.002109456438356</v>
       </c>
       <c r="K18">
-        <v>1.000010510376577</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="L18">
-        <v>1.000010510376577</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="M18">
-        <v>0.9999842305495226</v>
+        <v>0.9988134297260276</v>
       </c>
       <c r="N18">
-        <v>0.9999842305495226</v>
+        <v>0.9988134297260276</v>
       </c>
       <c r="O18">
-        <v>0.9999817769444688</v>
+        <v>0.9986288548401827</v>
       </c>
       <c r="P18">
-        <v>0.9999929904918741</v>
+        <v>0.9994726352511418</v>
       </c>
       <c r="Q18">
-        <v>0.9999929904918741</v>
+        <v>0.9994726352511418</v>
       </c>
       <c r="R18">
-        <v>0.9999973704630498</v>
+        <v>0.9998022380136989</v>
       </c>
       <c r="S18">
-        <v>0.9999973704630498</v>
+        <v>0.9998022380136989</v>
       </c>
       <c r="T18">
-        <v>0.9999990647771756</v>
+        <v>0.9999296855936075</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000024626443561</v>
+        <v>0.9980975468421054</v>
       </c>
       <c r="D19">
-        <v>0.999901487740171</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="E19">
-        <v>1.000024626443561</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="F19">
-        <v>1.000024626443561</v>
+        <v>0.9980975468421054</v>
       </c>
       <c r="G19">
-        <v>1.000065678678477</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="H19">
-        <v>0.9999458147007604</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="I19">
-        <v>1.000024626443561</v>
+        <v>0.9989536415789475</v>
       </c>
       <c r="J19">
-        <v>0.999901487740171</v>
+        <v>1.00126830368421</v>
       </c>
       <c r="K19">
-        <v>1.000024626443561</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="L19">
-        <v>1.000024626443561</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="M19">
-        <v>0.9999630570918658</v>
+        <v>0.9992865821052632</v>
       </c>
       <c r="N19">
-        <v>0.9999630570918658</v>
+        <v>0.9992865821052632</v>
       </c>
       <c r="O19">
-        <v>0.9999573096281641</v>
+        <v>0.9991756019298247</v>
       </c>
       <c r="P19">
-        <v>0.9999835802090975</v>
+        <v>0.9996829271929825</v>
       </c>
       <c r="Q19">
-        <v>0.9999835802090975</v>
+        <v>0.9996829271929825</v>
       </c>
       <c r="R19">
-        <v>0.9999938417677133</v>
+        <v>0.9998810997368421</v>
       </c>
       <c r="S19">
-        <v>0.9999938417677133</v>
+        <v>0.9998810997368421</v>
       </c>
       <c r="T19">
-        <v>0.9999978100750152</v>
+        <v>0.9999577240350878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9962663210526317</v>
+      </c>
+      <c r="D20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="E20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="F20">
+        <v>0.9962663210526317</v>
+      </c>
+      <c r="G20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="H20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="I20">
+        <v>0.997946477368421</v>
+      </c>
+      <c r="J20">
+        <v>1.002489121052631</v>
+      </c>
+      <c r="K20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="L20">
+        <v>1.000933415789474</v>
+      </c>
+      <c r="M20">
+        <v>0.9985998684210527</v>
+      </c>
+      <c r="N20">
+        <v>0.9985998684210527</v>
+      </c>
+      <c r="O20">
+        <v>0.9983820714035089</v>
+      </c>
+      <c r="P20">
+        <v>0.9993777175438598</v>
+      </c>
+      <c r="Q20">
+        <v>0.9993777175438598</v>
+      </c>
+      <c r="R20">
+        <v>0.9997666421052633</v>
+      </c>
+      <c r="S20">
+        <v>0.9997666421052633</v>
+      </c>
+      <c r="T20">
+        <v>0.9999170278070176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.003428707622599</v>
+      </c>
+      <c r="D21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="E21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="F21">
+        <v>1.003428707622599</v>
+      </c>
+      <c r="G21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="H21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="I21">
+        <v>1.001885785933631</v>
+      </c>
+      <c r="J21">
+        <v>0.9977142028961798</v>
+      </c>
+      <c r="K21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="L21">
+        <v>0.9991428232313693</v>
+      </c>
+      <c r="M21">
+        <v>1.001285765426984</v>
+      </c>
+      <c r="N21">
+        <v>1.001285765426984</v>
+      </c>
+      <c r="O21">
+        <v>1.001485772262533</v>
+      </c>
+      <c r="P21">
+        <v>1.000571451361779</v>
+      </c>
+      <c r="Q21">
+        <v>1.000571451361779</v>
+      </c>
+      <c r="R21">
+        <v>1.000214294329177</v>
+      </c>
+      <c r="S21">
+        <v>1.000214294329177</v>
+      </c>
+      <c r="T21">
+        <v>1.000076194357753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="D22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="E22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="F22">
+        <v>1.000908831526256</v>
+      </c>
+      <c r="G22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="H22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="I22">
+        <v>1.000499858573895</v>
+      </c>
+      <c r="J22">
+        <v>0.9993941100946063</v>
+      </c>
+      <c r="K22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="L22">
+        <v>0.9997727920364161</v>
+      </c>
+      <c r="M22">
+        <v>1.000340811781336</v>
+      </c>
+      <c r="N22">
+        <v>1.000340811781336</v>
+      </c>
+      <c r="O22">
+        <v>1.000393827378856</v>
+      </c>
+      <c r="P22">
+        <v>1.000151471866363</v>
+      </c>
+      <c r="Q22">
+        <v>1.000151471866363</v>
+      </c>
+      <c r="R22">
+        <v>1.000056801908876</v>
+      </c>
+      <c r="S22">
+        <v>1.000056801908876</v>
+      </c>
+      <c r="T22">
+        <v>1.000020196050668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="D23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="E23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="F23">
+        <v>1.001411375359713</v>
+      </c>
+      <c r="G23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="H23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="I23">
+        <v>1.000776259735137</v>
+      </c>
+      <c r="J23">
+        <v>0.9990590816746322</v>
+      </c>
+      <c r="K23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="L23">
+        <v>0.999647161353216</v>
+      </c>
+      <c r="M23">
+        <v>1.000529268356464</v>
+      </c>
+      <c r="N23">
+        <v>1.000529268356464</v>
+      </c>
+      <c r="O23">
+        <v>1.000611598816022</v>
+      </c>
+      <c r="P23">
+        <v>1.000235232688715</v>
+      </c>
+      <c r="Q23">
+        <v>1.000235232688715</v>
+      </c>
+      <c r="R23">
+        <v>1.00008821485484</v>
+      </c>
+      <c r="S23">
+        <v>1.00008821485484</v>
+      </c>
+      <c r="T23">
+        <v>1.000031366804855</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000365109954007</v>
+      </c>
+      <c r="D24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="E24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="F24">
+        <v>1.000365109954007</v>
+      </c>
+      <c r="G24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="H24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="I24">
+        <v>1.000200807751938</v>
+      </c>
+      <c r="J24">
+        <v>0.9997565922420613</v>
+      </c>
+      <c r="K24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="L24">
+        <v>0.9999087226448989</v>
+      </c>
+      <c r="M24">
+        <v>1.000136916299453</v>
+      </c>
+      <c r="N24">
+        <v>1.000136916299453</v>
+      </c>
+      <c r="O24">
+        <v>1.000158213450281</v>
+      </c>
+      <c r="P24">
+        <v>1.000060851747935</v>
+      </c>
+      <c r="Q24">
+        <v>1.000060851747935</v>
+      </c>
+      <c r="R24">
+        <v>1.000022819472176</v>
+      </c>
+      <c r="S24">
+        <v>1.000022819472176</v>
+      </c>
+      <c r="T24">
+        <v>1.000008112980451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9981549311872695</v>
+      </c>
+      <c r="D25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="E25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="F25">
+        <v>0.9981549311872695</v>
+      </c>
+      <c r="G25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="H25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="I25">
+        <v>0.9989852109187735</v>
+      </c>
+      <c r="J25">
+        <v>1.001230051627666</v>
+      </c>
+      <c r="K25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="L25">
+        <v>1.000461258899813</v>
+      </c>
+      <c r="M25">
+        <v>0.9993080950435412</v>
+      </c>
+      <c r="N25">
+        <v>0.9993080950435412</v>
+      </c>
+      <c r="O25">
+        <v>0.999200467001952</v>
+      </c>
+      <c r="P25">
+        <v>0.9996924829956318</v>
+      </c>
+      <c r="Q25">
+        <v>0.9996924829956318</v>
+      </c>
+      <c r="R25">
+        <v>0.9998846769716772</v>
+      </c>
+      <c r="S25">
+        <v>0.9998846769716772</v>
+      </c>
+      <c r="T25">
+        <v>0.9999589950721912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9994986125566805</v>
+      </c>
+      <c r="D26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="E26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="F26">
+        <v>0.9994986125566805</v>
+      </c>
+      <c r="G26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="H26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="I26">
+        <v>0.9997242291584696</v>
+      </c>
+      <c r="J26">
+        <v>1.000334261235492</v>
+      </c>
+      <c r="K26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="L26">
+        <v>1.000125348996037</v>
+      </c>
+      <c r="M26">
+        <v>0.9998119807763586</v>
+      </c>
+      <c r="N26">
+        <v>0.9998119807763586</v>
+      </c>
+      <c r="O26">
+        <v>0.9997827302370622</v>
+      </c>
+      <c r="P26">
+        <v>0.9999164368495846</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999164368495846</v>
+      </c>
+      <c r="R26">
+        <v>0.9999686648861976</v>
+      </c>
+      <c r="S26">
+        <v>0.9999686648861976</v>
+      </c>
+      <c r="T26">
+        <v>0.9999888583231252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9994989957929185</v>
+      </c>
+      <c r="D27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="E27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="F27">
+        <v>0.9994989957929185</v>
+      </c>
+      <c r="G27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="H27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="I27">
+        <v>0.9997244428415594</v>
+      </c>
+      <c r="J27">
+        <v>1.000334001172984</v>
+      </c>
+      <c r="K27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="L27">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="M27">
+        <v>0.9998121221451497</v>
+      </c>
+      <c r="N27">
+        <v>0.9998121221451497</v>
+      </c>
+      <c r="O27">
+        <v>0.9997828957106196</v>
+      </c>
+      <c r="P27">
+        <v>0.9999164975958935</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999164975958935</v>
+      </c>
+      <c r="R27">
+        <v>0.9999686853212653</v>
+      </c>
+      <c r="S27">
+        <v>0.9999686853212653</v>
+      </c>
+      <c r="T27">
+        <v>0.9999888642166007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9997830666657564</v>
+      </c>
+      <c r="D28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="E28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="F28">
+        <v>0.9997830666657564</v>
+      </c>
+      <c r="G28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="H28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="I28">
+        <v>0.9998806875269076</v>
+      </c>
+      <c r="J28">
+        <v>1.000144621351168</v>
+      </c>
+      <c r="K28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="L28">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="M28">
+        <v>0.9999186495877739</v>
+      </c>
+      <c r="N28">
+        <v>0.9999186495877739</v>
+      </c>
+      <c r="O28">
+        <v>0.9999059955674851</v>
+      </c>
+      <c r="P28">
+        <v>0.9999638438951131</v>
+      </c>
+      <c r="Q28">
+        <v>0.9999638438951131</v>
+      </c>
+      <c r="R28">
+        <v>0.9999864410487826</v>
+      </c>
+      <c r="S28">
+        <v>0.9999864410487826</v>
+      </c>
+      <c r="T28">
+        <v>0.9999951788455342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001339473238786</v>
+      </c>
+      <c r="D29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="E29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="F29">
+        <v>1.001339473238786</v>
+      </c>
+      <c r="G29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="H29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="I29">
+        <v>1.000736706127063</v>
+      </c>
+      <c r="J29">
+        <v>0.999107029623986</v>
+      </c>
+      <c r="K29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="L29">
+        <v>0.9996651337421619</v>
+      </c>
+      <c r="M29">
+        <v>1.000502303490474</v>
+      </c>
+      <c r="N29">
+        <v>1.000502303490474</v>
+      </c>
+      <c r="O29">
+        <v>1.00058043770267</v>
+      </c>
+      <c r="P29">
+        <v>1.000223246907703</v>
+      </c>
+      <c r="Q29">
+        <v>1.000223246907703</v>
+      </c>
+      <c r="R29">
+        <v>1.000083718616318</v>
+      </c>
+      <c r="S29">
+        <v>1.000083718616318</v>
+      </c>
+      <c r="T29">
+        <v>1.000029768369387</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9986940518836133</v>
+        <v>0.9988024406955743</v>
       </c>
       <c r="D4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="E4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="F4">
-        <v>0.9986940518836133</v>
+        <v>0.9988024406955743</v>
       </c>
       <c r="G4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="H4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="I4">
-        <v>0.999281727116634</v>
+        <v>0.9993413414424862</v>
       </c>
       <c r="J4">
-        <v>1.000870634748227</v>
+        <v>1.000798374510241</v>
       </c>
       <c r="K4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="L4">
-        <v>1.000326485632473</v>
+        <v>1.000299388711241</v>
       </c>
       <c r="M4">
-        <v>0.9995102687580431</v>
+        <v>0.9995509147034078</v>
       </c>
       <c r="N4">
-        <v>0.9995102687580431</v>
+        <v>0.9995509147034078</v>
       </c>
       <c r="O4">
-        <v>0.9994340882109066</v>
+        <v>0.9994810569497673</v>
       </c>
       <c r="P4">
-        <v>0.9997823410495196</v>
+        <v>0.9998004060393524</v>
       </c>
       <c r="Q4">
-        <v>0.9997823410495196</v>
+        <v>0.9998004060393524</v>
       </c>
       <c r="R4">
-        <v>0.9999183771952579</v>
+        <v>0.9999251517073247</v>
       </c>
       <c r="S4">
-        <v>0.9999183771952579</v>
+        <v>0.9999251517073247</v>
       </c>
       <c r="T4">
-        <v>0.9999709784409822</v>
+        <v>0.9999733871303377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9985393046974084</v>
+        <v>0.996645938969756</v>
       </c>
       <c r="D5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="E5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="F5">
-        <v>0.9985393046974084</v>
+        <v>0.996645938969756</v>
       </c>
       <c r="G5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="H5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="I5">
-        <v>0.9991966169380404</v>
+        <v>0.9981552671322816</v>
       </c>
       <c r="J5">
-        <v>1.000973797665706</v>
+        <v>1.002236043268031</v>
       </c>
       <c r="K5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="L5">
-        <v>1.000365172435156</v>
+        <v>1.000838512394103</v>
       </c>
       <c r="M5">
-        <v>0.9994522385662823</v>
+        <v>0.9987422256819294</v>
       </c>
       <c r="N5">
-        <v>0.9994522385662823</v>
+        <v>0.9987422256819294</v>
       </c>
       <c r="O5">
-        <v>0.9993670313568682</v>
+        <v>0.9985465728320468</v>
       </c>
       <c r="P5">
-        <v>0.999756549855907</v>
+        <v>0.9994409879193205</v>
       </c>
       <c r="Q5">
-        <v>0.999756549855907</v>
+        <v>0.9994409879193205</v>
       </c>
       <c r="R5">
-        <v>0.9999087055007193</v>
+        <v>0.9997903690380161</v>
       </c>
       <c r="S5">
-        <v>0.9999087055007193</v>
+        <v>0.9997903690380161</v>
       </c>
       <c r="T5">
-        <v>0.9999675394344374</v>
+        <v>0.9999254644253962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.995205886620408</v>
+        <v>0.9986940518836133</v>
       </c>
       <c r="D6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="E6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="F6">
-        <v>0.995205886620408</v>
+        <v>0.9986940518836133</v>
       </c>
       <c r="G6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="H6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="I6">
-        <v>0.997363238330696</v>
+        <v>0.999281727116634</v>
       </c>
       <c r="J6">
-        <v>1.003196062989294</v>
+        <v>1.000870634748227</v>
       </c>
       <c r="K6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="L6">
-        <v>1.001198522821007</v>
+        <v>1.000326485632473</v>
       </c>
       <c r="M6">
-        <v>0.9982022047207075</v>
+        <v>0.9995102687580431</v>
       </c>
       <c r="N6">
-        <v>0.9982022047207075</v>
+        <v>0.9995102687580431</v>
       </c>
       <c r="O6">
-        <v>0.9979225492573703</v>
+        <v>0.9994340882109066</v>
       </c>
       <c r="P6">
-        <v>0.9992009774208074</v>
+        <v>0.9997823410495196</v>
       </c>
       <c r="Q6">
-        <v>0.9992009774208074</v>
+        <v>0.9997823410495196</v>
       </c>
       <c r="R6">
-        <v>0.9997003637708572</v>
+        <v>0.9999183771952579</v>
       </c>
       <c r="S6">
-        <v>0.9997003637708572</v>
+        <v>0.9999183771952579</v>
       </c>
       <c r="T6">
-        <v>0.9998934594005698</v>
+        <v>0.9999709784409822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998408097834158</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="D7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="E7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="F7">
-        <v>0.9998408097834158</v>
+        <v>0.9985393046974084</v>
       </c>
       <c r="G7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="H7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="I7">
-        <v>0.9999124442593864</v>
+        <v>0.9991966169380404</v>
       </c>
       <c r="J7">
-        <v>1.000106130295606</v>
+        <v>1.000973797665706</v>
       </c>
       <c r="K7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="L7">
-        <v>1.000039796942464</v>
+        <v>1.000365172435156</v>
       </c>
       <c r="M7">
-        <v>0.9999403033629399</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="N7">
-        <v>0.9999403033629399</v>
+        <v>0.9994522385662823</v>
       </c>
       <c r="O7">
-        <v>0.9999310169950887</v>
+        <v>0.9993670313568682</v>
       </c>
       <c r="P7">
-        <v>0.999973467889448</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="Q7">
-        <v>0.999973467889448</v>
+        <v>0.999756549855907</v>
       </c>
       <c r="R7">
-        <v>0.999990050152702</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="S7">
-        <v>0.999990050152702</v>
+        <v>0.9999087055007193</v>
       </c>
       <c r="T7">
-        <v>0.9999964625276335</v>
+        <v>0.9999675394344374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999880569948384</v>
+        <v>0.995205886620408</v>
       </c>
       <c r="D8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="E8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="F8">
-        <v>0.9999880569948384</v>
+        <v>0.995205886620408</v>
       </c>
       <c r="G8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="H8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="I8">
-        <v>0.9999934297801691</v>
+        <v>0.997363238330696</v>
       </c>
       <c r="J8">
-        <v>1.000007965313616</v>
+        <v>1.003196062989294</v>
       </c>
       <c r="K8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="L8">
-        <v>1.000002985063193</v>
+        <v>1.001198522821007</v>
       </c>
       <c r="M8">
-        <v>0.9999955210290159</v>
+        <v>0.9982022047207075</v>
       </c>
       <c r="N8">
-        <v>0.9999955210290159</v>
+        <v>0.9982022047207075</v>
       </c>
       <c r="O8">
-        <v>0.999994823946067</v>
+        <v>0.9979225492573703</v>
       </c>
       <c r="P8">
-        <v>0.9999980090404085</v>
+        <v>0.9992009774208074</v>
       </c>
       <c r="Q8">
-        <v>0.9999980090404085</v>
+        <v>0.9992009774208074</v>
       </c>
       <c r="R8">
-        <v>0.9999992530461046</v>
+        <v>0.9997003637708572</v>
       </c>
       <c r="S8">
-        <v>0.9999992530461046</v>
+        <v>0.9997003637708572</v>
       </c>
       <c r="T8">
-        <v>0.9999997345463671</v>
+        <v>0.9998934594005698</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997363311749591</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="D9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="E9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="F9">
-        <v>0.9997363311749591</v>
+        <v>0.9998408097834158</v>
       </c>
       <c r="G9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="H9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="I9">
-        <v>0.9998549809145069</v>
+        <v>0.9999124442593864</v>
       </c>
       <c r="J9">
-        <v>1.000175782423695</v>
+        <v>1.000106130295606</v>
       </c>
       <c r="K9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="L9">
-        <v>1.000065917483334</v>
+        <v>1.000039796942464</v>
       </c>
       <c r="M9">
-        <v>0.9999011243291465</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="N9">
-        <v>0.9999011243291465</v>
+        <v>0.9999403033629399</v>
       </c>
       <c r="O9">
-        <v>0.9998857431909333</v>
+        <v>0.9999310169950887</v>
       </c>
       <c r="P9">
-        <v>0.9999560553805423</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="Q9">
-        <v>0.9999560553805423</v>
+        <v>0.999973467889448</v>
       </c>
       <c r="R9">
-        <v>0.9999835209062402</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="S9">
-        <v>0.9999835209062402</v>
+        <v>0.999990050152702</v>
       </c>
       <c r="T9">
-        <v>0.9999941411605272</v>
+        <v>0.9999964625276335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9951345753666027</v>
+        <v>0.9999880569948384</v>
       </c>
       <c r="D10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="E10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="F10">
-        <v>0.9951345753666027</v>
+        <v>0.9999880569948384</v>
       </c>
       <c r="G10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="H10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="I10">
-        <v>0.997324017329167</v>
+        <v>0.9999934297801691</v>
       </c>
       <c r="J10">
-        <v>1.003243603333979</v>
+        <v>1.000007965313616</v>
       </c>
       <c r="K10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="L10">
-        <v>1.001216350514044</v>
+        <v>1.000002985063193</v>
       </c>
       <c r="M10">
-        <v>0.9981754629403234</v>
+        <v>0.9999955210290159</v>
       </c>
       <c r="N10">
-        <v>0.9981754629403234</v>
+        <v>0.9999955210290159</v>
       </c>
       <c r="O10">
-        <v>0.9978916477366045</v>
+        <v>0.999994823946067</v>
       </c>
       <c r="P10">
-        <v>0.9991890921315637</v>
+        <v>0.9999980090404085</v>
       </c>
       <c r="Q10">
-        <v>0.9991890921315637</v>
+        <v>0.9999980090404085</v>
       </c>
       <c r="R10">
-        <v>0.9996959067271839</v>
+        <v>0.9999992530461046</v>
       </c>
       <c r="S10">
-        <v>0.9996959067271839</v>
+        <v>0.9999992530461046</v>
       </c>
       <c r="T10">
-        <v>0.9998918745953137</v>
+        <v>0.9999997345463671</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9986075131691332</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="D11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="E11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="F11">
-        <v>0.9986075131691332</v>
+        <v>0.9997363311749591</v>
       </c>
       <c r="G11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="H11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="I11">
-        <v>0.9992341310899577</v>
+        <v>0.9998549809145069</v>
       </c>
       <c r="J11">
-        <v>1.000928327254135</v>
+        <v>1.000175782423695</v>
       </c>
       <c r="K11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="L11">
-        <v>1.000348119668448</v>
+        <v>1.000065917483334</v>
       </c>
       <c r="M11">
-        <v>0.9994778164187906</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="N11">
-        <v>0.9994778164187906</v>
+        <v>0.9999011243291465</v>
       </c>
       <c r="O11">
-        <v>0.9993965879758463</v>
+        <v>0.9998857431909333</v>
       </c>
       <c r="P11">
-        <v>0.9997679175020098</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="Q11">
-        <v>0.9997679175020098</v>
+        <v>0.9999560553805423</v>
       </c>
       <c r="R11">
-        <v>0.9999129680436194</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="S11">
-        <v>0.9999129680436194</v>
+        <v>0.9999835209062402</v>
       </c>
       <c r="T11">
-        <v>0.9999690550864284</v>
+        <v>0.9999941411605272</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9985047027894761</v>
+        <v>0.9951345753666027</v>
       </c>
       <c r="D12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="E12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="F12">
-        <v>0.9985047027894761</v>
+        <v>0.9951345753666027</v>
       </c>
       <c r="G12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="H12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="I12">
-        <v>0.9991775866947358</v>
+        <v>0.997324017329167</v>
       </c>
       <c r="J12">
-        <v>1.000996863957894</v>
+        <v>1.003243603333979</v>
       </c>
       <c r="K12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="L12">
-        <v>1.000373822863158</v>
+        <v>1.001216350514044</v>
       </c>
       <c r="M12">
-        <v>0.9994392628263169</v>
+        <v>0.9981754629403234</v>
       </c>
       <c r="N12">
-        <v>0.9994392628263169</v>
+        <v>0.9981754629403234</v>
       </c>
       <c r="O12">
-        <v>0.9993520374491233</v>
+        <v>0.9978916477366045</v>
       </c>
       <c r="P12">
-        <v>0.9997507828385972</v>
+        <v>0.9991890921315637</v>
       </c>
       <c r="Q12">
-        <v>0.9997507828385972</v>
+        <v>0.9991890921315637</v>
       </c>
       <c r="R12">
-        <v>0.9999065428447373</v>
+        <v>0.9996959067271839</v>
       </c>
       <c r="S12">
-        <v>0.9999065428447373</v>
+        <v>0.9996959067271839</v>
       </c>
       <c r="T12">
-        <v>0.9999667703385966</v>
+        <v>0.9998918745953137</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000956903401709</v>
+        <v>0.9986075131691332</v>
       </c>
       <c r="D13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="E13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="F13">
-        <v>1.000956903401709</v>
+        <v>0.9986075131691332</v>
       </c>
       <c r="G13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="H13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="I13">
-        <v>1.000526296510055</v>
+        <v>0.9992341310899577</v>
       </c>
       <c r="J13">
-        <v>0.9993620663359735</v>
+        <v>1.000928327254135</v>
       </c>
       <c r="K13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="L13">
-        <v>0.9997607739294408</v>
+        <v>1.000348119668448</v>
       </c>
       <c r="M13">
-        <v>1.000358838665575</v>
+        <v>0.9994778164187906</v>
       </c>
       <c r="N13">
-        <v>1.000358838665575</v>
+        <v>0.9994778164187906</v>
       </c>
       <c r="O13">
-        <v>1.000414657947069</v>
+        <v>0.9993965879758463</v>
       </c>
       <c r="P13">
-        <v>1.00015948375353</v>
+        <v>0.9997679175020098</v>
       </c>
       <c r="Q13">
-        <v>1.00015948375353</v>
+        <v>0.9997679175020098</v>
       </c>
       <c r="R13">
-        <v>1.000059806297508</v>
+        <v>0.9999129680436194</v>
       </c>
       <c r="S13">
-        <v>1.000059806297508</v>
+        <v>0.9999129680436194</v>
       </c>
       <c r="T13">
-        <v>1.000021264672677</v>
+        <v>0.9999690550864284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9915939600000014</v>
+        <v>0.9985047027894761</v>
       </c>
       <c r="D14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="E14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="F14">
-        <v>0.9915939600000014</v>
+        <v>0.9985047027894761</v>
       </c>
       <c r="G14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="H14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="I14">
-        <v>0.9953766800000003</v>
+        <v>0.9991775866947358</v>
       </c>
       <c r="J14">
-        <v>1.005603999999999</v>
+        <v>1.000996863957894</v>
       </c>
       <c r="K14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="L14">
-        <v>1.0021015</v>
+        <v>1.000373822863158</v>
       </c>
       <c r="M14">
-        <v>0.9968477300000007</v>
+        <v>0.9994392628263169</v>
       </c>
       <c r="N14">
-        <v>0.9968477300000007</v>
+        <v>0.9994392628263169</v>
       </c>
       <c r="O14">
-        <v>0.9963573800000006</v>
+        <v>0.9993520374491233</v>
       </c>
       <c r="P14">
-        <v>0.9985989866666672</v>
+        <v>0.9997507828385972</v>
       </c>
       <c r="Q14">
-        <v>0.9985989866666672</v>
+        <v>0.9997507828385972</v>
       </c>
       <c r="R14">
-        <v>0.9994746150000005</v>
+        <v>0.9999065428447373</v>
       </c>
       <c r="S14">
-        <v>0.9994746150000005</v>
+        <v>0.9999065428447373</v>
       </c>
       <c r="T14">
-        <v>0.9998131900000002</v>
+        <v>0.9999667703385966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9959779000000001</v>
+        <v>1.000956903401709</v>
       </c>
       <c r="D15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="E15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="F15">
-        <v>0.9959779000000001</v>
+        <v>1.000956903401709</v>
       </c>
       <c r="G15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="I15">
-        <v>0.99778785</v>
+        <v>1.000526296510055</v>
       </c>
       <c r="J15">
-        <v>1.0026814</v>
+        <v>0.9993620663359735</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>0.9997607739294408</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>1.000358838665575</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>1.000358838665575</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>1.000414657947069</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>1.00015948375353</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>1.00015948375353</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>1.000059806297508</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>1.000059806297508</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>1.000021264672677</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.99041099</v>
+        <v>0.9915939600000014</v>
       </c>
       <c r="D16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="E16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="F16">
-        <v>0.99041099</v>
+        <v>0.9915939600000014</v>
       </c>
       <c r="G16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="H16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="I16">
-        <v>0.9947260400000001</v>
+        <v>0.9953766800000003</v>
       </c>
       <c r="J16">
-        <v>1.0063927</v>
+        <v>1.005603999999999</v>
       </c>
       <c r="K16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="L16">
-        <v>1.0023973</v>
+        <v>1.0021015</v>
       </c>
       <c r="M16">
-        <v>0.996404145</v>
+        <v>0.9968477300000007</v>
       </c>
       <c r="N16">
-        <v>0.996404145</v>
+        <v>0.9968477300000007</v>
       </c>
       <c r="O16">
-        <v>0.9958447766666666</v>
+        <v>0.9963573800000006</v>
       </c>
       <c r="P16">
-        <v>0.9984018633333333</v>
+        <v>0.9985989866666672</v>
       </c>
       <c r="Q16">
-        <v>0.9984018633333333</v>
+        <v>0.9985989866666672</v>
       </c>
       <c r="R16">
-        <v>0.9994007224999999</v>
+        <v>0.9994746150000005</v>
       </c>
       <c r="S16">
-        <v>0.9994007224999999</v>
+        <v>0.9994746150000005</v>
       </c>
       <c r="T16">
-        <v>0.9997869383333334</v>
+        <v>0.9998131900000002</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0019406</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="E17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="F17">
-        <v>1.0019406</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="H17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>1.0010673</v>
+        <v>0.99778785</v>
       </c>
       <c r="J17">
-        <v>0.99870627</v>
+        <v>1.0026814</v>
       </c>
       <c r="K17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>0.99951485</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>1.000727725</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>1.000727725</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>1.000840916666667</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>1.000323433333333</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>1.000323433333333</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>1.0001212875</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>1.0001212875</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>1.00004312</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9968358131506849</v>
+        <v>0.99041099</v>
       </c>
       <c r="D18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="E18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="F18">
-        <v>0.9968358131506849</v>
+        <v>0.99041099</v>
       </c>
       <c r="G18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="H18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="I18">
-        <v>0.9982597050684928</v>
+        <v>0.9947260400000001</v>
       </c>
       <c r="J18">
-        <v>1.002109456438356</v>
+        <v>1.0063927</v>
       </c>
       <c r="K18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="L18">
-        <v>1.00079104630137</v>
+        <v>1.0023973</v>
       </c>
       <c r="M18">
-        <v>0.9988134297260276</v>
+        <v>0.996404145</v>
       </c>
       <c r="N18">
-        <v>0.9988134297260276</v>
+        <v>0.996404145</v>
       </c>
       <c r="O18">
-        <v>0.9986288548401827</v>
+        <v>0.9958447766666666</v>
       </c>
       <c r="P18">
-        <v>0.9994726352511418</v>
+        <v>0.9984018633333333</v>
       </c>
       <c r="Q18">
-        <v>0.9994726352511418</v>
+        <v>0.9984018633333333</v>
       </c>
       <c r="R18">
-        <v>0.9998022380136989</v>
+        <v>0.9994007224999999</v>
       </c>
       <c r="S18">
-        <v>0.9998022380136989</v>
+        <v>0.9994007224999999</v>
       </c>
       <c r="T18">
-        <v>0.9999296855936075</v>
+        <v>0.9997869383333334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9980975468421054</v>
+        <v>1.0019406</v>
       </c>
       <c r="D19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="E19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="F19">
-        <v>0.9980975468421054</v>
+        <v>1.0019406</v>
       </c>
       <c r="G19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="H19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="I19">
-        <v>0.9989536415789475</v>
+        <v>1.0010673</v>
       </c>
       <c r="J19">
-        <v>1.00126830368421</v>
+        <v>0.99870627</v>
       </c>
       <c r="K19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="L19">
-        <v>1.000475617368421</v>
+        <v>0.99951485</v>
       </c>
       <c r="M19">
-        <v>0.9992865821052632</v>
+        <v>1.000727725</v>
       </c>
       <c r="N19">
-        <v>0.9992865821052632</v>
+        <v>1.000727725</v>
       </c>
       <c r="O19">
-        <v>0.9991756019298247</v>
+        <v>1.000840916666667</v>
       </c>
       <c r="P19">
-        <v>0.9996829271929825</v>
+        <v>1.000323433333333</v>
       </c>
       <c r="Q19">
-        <v>0.9996829271929825</v>
+        <v>1.000323433333333</v>
       </c>
       <c r="R19">
-        <v>0.9998810997368421</v>
+        <v>1.0001212875</v>
       </c>
       <c r="S19">
-        <v>0.9998810997368421</v>
+        <v>1.0001212875</v>
       </c>
       <c r="T19">
-        <v>0.9999577240350878</v>
+        <v>1.00004312</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9962663210526317</v>
+        <v>0.9968358131506849</v>
       </c>
       <c r="D20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="E20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="F20">
-        <v>0.9962663210526317</v>
+        <v>0.9968358131506849</v>
       </c>
       <c r="G20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="H20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="I20">
-        <v>0.997946477368421</v>
+        <v>0.9982597050684928</v>
       </c>
       <c r="J20">
-        <v>1.002489121052631</v>
+        <v>1.002109456438356</v>
       </c>
       <c r="K20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="L20">
-        <v>1.000933415789474</v>
+        <v>1.00079104630137</v>
       </c>
       <c r="M20">
-        <v>0.9985998684210527</v>
+        <v>0.9988134297260276</v>
       </c>
       <c r="N20">
-        <v>0.9985998684210527</v>
+        <v>0.9988134297260276</v>
       </c>
       <c r="O20">
-        <v>0.9983820714035089</v>
+        <v>0.9986288548401827</v>
       </c>
       <c r="P20">
-        <v>0.9993777175438598</v>
+        <v>0.9994726352511418</v>
       </c>
       <c r="Q20">
-        <v>0.9993777175438598</v>
+        <v>0.9994726352511418</v>
       </c>
       <c r="R20">
-        <v>0.9997666421052633</v>
+        <v>0.9998022380136989</v>
       </c>
       <c r="S20">
-        <v>0.9997666421052633</v>
+        <v>0.9998022380136989</v>
       </c>
       <c r="T20">
-        <v>0.9999170278070176</v>
+        <v>0.9999296855936075</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.003428707622599</v>
+        <v>0.9980975468421054</v>
       </c>
       <c r="D21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="E21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="F21">
-        <v>1.003428707622599</v>
+        <v>0.9980975468421054</v>
       </c>
       <c r="G21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="H21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="I21">
-        <v>1.001885785933631</v>
+        <v>0.9989536415789475</v>
       </c>
       <c r="J21">
-        <v>0.9977142028961798</v>
+        <v>1.00126830368421</v>
       </c>
       <c r="K21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="L21">
-        <v>0.9991428232313693</v>
+        <v>1.000475617368421</v>
       </c>
       <c r="M21">
-        <v>1.001285765426984</v>
+        <v>0.9992865821052632</v>
       </c>
       <c r="N21">
-        <v>1.001285765426984</v>
+        <v>0.9992865821052632</v>
       </c>
       <c r="O21">
-        <v>1.001485772262533</v>
+        <v>0.9991756019298247</v>
       </c>
       <c r="P21">
-        <v>1.000571451361779</v>
+        <v>0.9996829271929825</v>
       </c>
       <c r="Q21">
-        <v>1.000571451361779</v>
+        <v>0.9996829271929825</v>
       </c>
       <c r="R21">
-        <v>1.000214294329177</v>
+        <v>0.9998810997368421</v>
       </c>
       <c r="S21">
-        <v>1.000214294329177</v>
+        <v>0.9998810997368421</v>
       </c>
       <c r="T21">
-        <v>1.000076194357753</v>
+        <v>0.9999577240350878</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000908831526256</v>
+        <v>0.9962663210526317</v>
       </c>
       <c r="D22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="E22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="F22">
-        <v>1.000908831526256</v>
+        <v>0.9962663210526317</v>
       </c>
       <c r="G22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="H22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="I22">
-        <v>1.000499858573895</v>
+        <v>0.997946477368421</v>
       </c>
       <c r="J22">
-        <v>0.9993941100946063</v>
+        <v>1.002489121052631</v>
       </c>
       <c r="K22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="L22">
-        <v>0.9997727920364161</v>
+        <v>1.000933415789474</v>
       </c>
       <c r="M22">
-        <v>1.000340811781336</v>
+        <v>0.9985998684210527</v>
       </c>
       <c r="N22">
-        <v>1.000340811781336</v>
+        <v>0.9985998684210527</v>
       </c>
       <c r="O22">
-        <v>1.000393827378856</v>
+        <v>0.9983820714035089</v>
       </c>
       <c r="P22">
-        <v>1.000151471866363</v>
+        <v>0.9993777175438598</v>
       </c>
       <c r="Q22">
-        <v>1.000151471866363</v>
+        <v>0.9993777175438598</v>
       </c>
       <c r="R22">
-        <v>1.000056801908876</v>
+        <v>0.9997666421052633</v>
       </c>
       <c r="S22">
-        <v>1.000056801908876</v>
+        <v>0.9997666421052633</v>
       </c>
       <c r="T22">
-        <v>1.000020196050668</v>
+        <v>0.9999170278070176</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001411375359713</v>
+        <v>1.003428707622599</v>
       </c>
       <c r="D23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="E23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="F23">
-        <v>1.001411375359713</v>
+        <v>1.003428707622599</v>
       </c>
       <c r="G23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="H23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="I23">
-        <v>1.000776259735137</v>
+        <v>1.001885785933631</v>
       </c>
       <c r="J23">
-        <v>0.9990590816746322</v>
+        <v>0.9977142028961798</v>
       </c>
       <c r="K23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="L23">
-        <v>0.999647161353216</v>
+        <v>0.9991428232313693</v>
       </c>
       <c r="M23">
-        <v>1.000529268356464</v>
+        <v>1.001285765426984</v>
       </c>
       <c r="N23">
-        <v>1.000529268356464</v>
+        <v>1.001285765426984</v>
       </c>
       <c r="O23">
-        <v>1.000611598816022</v>
+        <v>1.001485772262533</v>
       </c>
       <c r="P23">
-        <v>1.000235232688715</v>
+        <v>1.000571451361779</v>
       </c>
       <c r="Q23">
-        <v>1.000235232688715</v>
+        <v>1.000571451361779</v>
       </c>
       <c r="R23">
-        <v>1.00008821485484</v>
+        <v>1.000214294329177</v>
       </c>
       <c r="S23">
-        <v>1.00008821485484</v>
+        <v>1.000214294329177</v>
       </c>
       <c r="T23">
-        <v>1.000031366804855</v>
+        <v>1.000076194357753</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000365109954007</v>
+        <v>1.000908831526256</v>
       </c>
       <c r="D24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="E24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="F24">
-        <v>1.000365109954007</v>
+        <v>1.000908831526256</v>
       </c>
       <c r="G24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="H24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="I24">
-        <v>1.000200807751938</v>
+        <v>1.000499858573895</v>
       </c>
       <c r="J24">
-        <v>0.9997565922420613</v>
+        <v>0.9993941100946063</v>
       </c>
       <c r="K24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="L24">
-        <v>0.9999087226448989</v>
+        <v>0.9997727920364161</v>
       </c>
       <c r="M24">
-        <v>1.000136916299453</v>
+        <v>1.000340811781336</v>
       </c>
       <c r="N24">
-        <v>1.000136916299453</v>
+        <v>1.000340811781336</v>
       </c>
       <c r="O24">
-        <v>1.000158213450281</v>
+        <v>1.000393827378856</v>
       </c>
       <c r="P24">
-        <v>1.000060851747935</v>
+        <v>1.000151471866363</v>
       </c>
       <c r="Q24">
-        <v>1.000060851747935</v>
+        <v>1.000151471866363</v>
       </c>
       <c r="R24">
-        <v>1.000022819472176</v>
+        <v>1.000056801908876</v>
       </c>
       <c r="S24">
-        <v>1.000022819472176</v>
+        <v>1.000056801908876</v>
       </c>
       <c r="T24">
-        <v>1.000008112980451</v>
+        <v>1.000020196050668</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9981549311872695</v>
+        <v>1.001411375359713</v>
       </c>
       <c r="D25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="E25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="F25">
-        <v>0.9981549311872695</v>
+        <v>1.001411375359713</v>
       </c>
       <c r="G25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="H25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="I25">
-        <v>0.9989852109187735</v>
+        <v>1.000776259735137</v>
       </c>
       <c r="J25">
-        <v>1.001230051627666</v>
+        <v>0.9990590816746322</v>
       </c>
       <c r="K25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="L25">
-        <v>1.000461258899813</v>
+        <v>0.999647161353216</v>
       </c>
       <c r="M25">
-        <v>0.9993080950435412</v>
+        <v>1.000529268356464</v>
       </c>
       <c r="N25">
-        <v>0.9993080950435412</v>
+        <v>1.000529268356464</v>
       </c>
       <c r="O25">
-        <v>0.999200467001952</v>
+        <v>1.000611598816022</v>
       </c>
       <c r="P25">
-        <v>0.9996924829956318</v>
+        <v>1.000235232688715</v>
       </c>
       <c r="Q25">
-        <v>0.9996924829956318</v>
+        <v>1.000235232688715</v>
       </c>
       <c r="R25">
-        <v>0.9998846769716772</v>
+        <v>1.00008821485484</v>
       </c>
       <c r="S25">
-        <v>0.9998846769716772</v>
+        <v>1.00008821485484</v>
       </c>
       <c r="T25">
-        <v>0.9999589950721912</v>
+        <v>1.000031366804855</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9994986125566805</v>
+        <v>1.000365109954007</v>
       </c>
       <c r="D26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="E26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="F26">
-        <v>0.9994986125566805</v>
+        <v>1.000365109954007</v>
       </c>
       <c r="G26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="H26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="I26">
-        <v>0.9997242291584696</v>
+        <v>1.000200807751938</v>
       </c>
       <c r="J26">
-        <v>1.000334261235492</v>
+        <v>0.9997565922420613</v>
       </c>
       <c r="K26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="L26">
-        <v>1.000125348996037</v>
+        <v>0.9999087226448989</v>
       </c>
       <c r="M26">
-        <v>0.9998119807763586</v>
+        <v>1.000136916299453</v>
       </c>
       <c r="N26">
-        <v>0.9998119807763586</v>
+        <v>1.000136916299453</v>
       </c>
       <c r="O26">
-        <v>0.9997827302370622</v>
+        <v>1.000158213450281</v>
       </c>
       <c r="P26">
-        <v>0.9999164368495846</v>
+        <v>1.000060851747935</v>
       </c>
       <c r="Q26">
-        <v>0.9999164368495846</v>
+        <v>1.000060851747935</v>
       </c>
       <c r="R26">
-        <v>0.9999686648861976</v>
+        <v>1.000022819472176</v>
       </c>
       <c r="S26">
-        <v>0.9999686648861976</v>
+        <v>1.000022819472176</v>
       </c>
       <c r="T26">
-        <v>0.9999888583231252</v>
+        <v>1.000008112980451</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9994989957929185</v>
+        <v>0.9981549311872695</v>
       </c>
       <c r="D27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="E27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="F27">
-        <v>0.9994989957929185</v>
+        <v>0.9981549311872695</v>
       </c>
       <c r="G27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="H27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="I27">
-        <v>0.9997244428415594</v>
+        <v>0.9989852109187735</v>
       </c>
       <c r="J27">
-        <v>1.000334001172984</v>
+        <v>1.001230051627666</v>
       </c>
       <c r="K27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="L27">
-        <v>1.000125248497381</v>
+        <v>1.000461258899813</v>
       </c>
       <c r="M27">
-        <v>0.9998121221451497</v>
+        <v>0.9993080950435412</v>
       </c>
       <c r="N27">
-        <v>0.9998121221451497</v>
+        <v>0.9993080950435412</v>
       </c>
       <c r="O27">
-        <v>0.9997828957106196</v>
+        <v>0.999200467001952</v>
       </c>
       <c r="P27">
-        <v>0.9999164975958935</v>
+        <v>0.9996924829956318</v>
       </c>
       <c r="Q27">
-        <v>0.9999164975958935</v>
+        <v>0.9996924829956318</v>
       </c>
       <c r="R27">
-        <v>0.9999686853212653</v>
+        <v>0.9998846769716772</v>
       </c>
       <c r="S27">
-        <v>0.9999686853212653</v>
+        <v>0.9998846769716772</v>
       </c>
       <c r="T27">
-        <v>0.9999888642166007</v>
+        <v>0.9999589950721912</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9997830666657564</v>
+        <v>0.9994986125566805</v>
       </c>
       <c r="D28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="E28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="F28">
-        <v>0.9997830666657564</v>
+        <v>0.9994986125566805</v>
       </c>
       <c r="G28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="H28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="I28">
-        <v>0.9998806875269076</v>
+        <v>0.9997242291584696</v>
       </c>
       <c r="J28">
-        <v>1.000144621351168</v>
+        <v>1.000334261235492</v>
       </c>
       <c r="K28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="L28">
-        <v>1.000054232509791</v>
+        <v>1.000125348996037</v>
       </c>
       <c r="M28">
-        <v>0.9999186495877739</v>
+        <v>0.9998119807763586</v>
       </c>
       <c r="N28">
-        <v>0.9999186495877739</v>
+        <v>0.9998119807763586</v>
       </c>
       <c r="O28">
-        <v>0.9999059955674851</v>
+        <v>0.9997827302370622</v>
       </c>
       <c r="P28">
-        <v>0.9999638438951131</v>
+        <v>0.9999164368495846</v>
       </c>
       <c r="Q28">
-        <v>0.9999638438951131</v>
+        <v>0.9999164368495846</v>
       </c>
       <c r="R28">
-        <v>0.9999864410487826</v>
+        <v>0.9999686648861976</v>
       </c>
       <c r="S28">
-        <v>0.9999864410487826</v>
+        <v>0.9999686648861976</v>
       </c>
       <c r="T28">
-        <v>0.9999951788455342</v>
+        <v>0.9999888583231252</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9994989957929185</v>
+      </c>
+      <c r="D29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="E29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="F29">
+        <v>0.9994989957929185</v>
+      </c>
+      <c r="G29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="H29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="I29">
+        <v>0.9997244428415594</v>
+      </c>
+      <c r="J29">
+        <v>1.000334001172984</v>
+      </c>
+      <c r="K29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="L29">
+        <v>1.000125248497381</v>
+      </c>
+      <c r="M29">
+        <v>0.9998121221451497</v>
+      </c>
+      <c r="N29">
+        <v>0.9998121221451497</v>
+      </c>
+      <c r="O29">
+        <v>0.9997828957106196</v>
+      </c>
+      <c r="P29">
+        <v>0.9999164975958935</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999164975958935</v>
+      </c>
+      <c r="R29">
+        <v>0.9999686853212653</v>
+      </c>
+      <c r="S29">
+        <v>0.9999686853212653</v>
+      </c>
+      <c r="T29">
+        <v>0.9999888642166007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9997830666657564</v>
+      </c>
+      <c r="D30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="E30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="F30">
+        <v>0.9997830666657564</v>
+      </c>
+      <c r="G30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="H30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="I30">
+        <v>0.9998806875269076</v>
+      </c>
+      <c r="J30">
+        <v>1.000144621351168</v>
+      </c>
+      <c r="K30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="L30">
+        <v>1.000054232509791</v>
+      </c>
+      <c r="M30">
+        <v>0.9999186495877739</v>
+      </c>
+      <c r="N30">
+        <v>0.9999186495877739</v>
+      </c>
+      <c r="O30">
+        <v>0.9999059955674851</v>
+      </c>
+      <c r="P30">
+        <v>0.9999638438951131</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999638438951131</v>
+      </c>
+      <c r="R30">
+        <v>0.9999864410487826</v>
+      </c>
+      <c r="S30">
+        <v>0.9999864410487826</v>
+      </c>
+      <c r="T30">
+        <v>0.9999951788455342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001339473238786</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.001339473238786</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000736706127063</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.999107029623986</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9996651337421619</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000502303490474</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000502303490474</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.00058043770267</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000223246907703</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000223246907703</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000083718616318</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000083718616318</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000029768369387</v>
       </c>
     </row>
